--- a/1758/1758_TestCase .xlsx
+++ b/1758/1758_TestCase .xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hung\Documents\GitHub\17-cdptw1-1\1758\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="103">
   <si>
     <t>VERSION</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>Block 1757</t>
-  </si>
-  <si>
-    <t>1757</t>
   </si>
   <si>
     <t>u</t>
@@ -753,6 +750,9 @@
       </rPr>
       <t>lớn hơn 150px.</t>
     </r>
+  </si>
+  <si>
+    <t>Block 1758</t>
   </si>
 </sst>
 </file>
@@ -1285,6 +1285,15 @@
     <xf numFmtId="1" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1309,9 +1318,135 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="6" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1321,18 +1456,39 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1365,162 +1521,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="18" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="7" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="8" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="9" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="16" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="24"/>
@@ -4737,32 +4737,32 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -4786,7 +4786,7 @@
   <dimension ref="A1:BI45"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:AI2"/>
+      <selection activeCell="AC10" sqref="AC10:AM11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="11.25"/>
@@ -4803,287 +4803,287 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="116" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="73"/>
-      <c r="X1" s="73"/>
-      <c r="Y1" s="73"/>
-      <c r="Z1" s="73"/>
-      <c r="AA1" s="73"/>
-      <c r="AB1" s="73"/>
-      <c r="AC1" s="73"/>
-      <c r="AD1" s="73"/>
-      <c r="AE1" s="73"/>
-      <c r="AF1" s="73"/>
-      <c r="AG1" s="73"/>
-      <c r="AH1" s="73"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="80" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="131">
+        <v>1758</v>
+      </c>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
+      <c r="R1" s="125"/>
+      <c r="S1" s="125"/>
+      <c r="T1" s="125"/>
+      <c r="U1" s="125"/>
+      <c r="V1" s="125"/>
+      <c r="W1" s="125"/>
+      <c r="X1" s="125"/>
+      <c r="Y1" s="125"/>
+      <c r="Z1" s="125"/>
+      <c r="AA1" s="125"/>
+      <c r="AB1" s="125"/>
+      <c r="AC1" s="125"/>
+      <c r="AD1" s="125"/>
+      <c r="AE1" s="125"/>
+      <c r="AF1" s="125"/>
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="125"/>
+      <c r="AI1" s="126"/>
+      <c r="AJ1" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="AK1" s="81"/>
-      <c r="AL1" s="81"/>
-      <c r="AM1" s="81"/>
-      <c r="AN1" s="82" t="s">
+      <c r="AK1" s="133"/>
+      <c r="AL1" s="133"/>
+      <c r="AM1" s="133"/>
+      <c r="AN1" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="AO1" s="80"/>
-      <c r="AP1" s="81"/>
-      <c r="AQ1" s="81"/>
-      <c r="AR1" s="81"/>
-      <c r="AS1" s="82" t="s">
+      <c r="AO1" s="132"/>
+      <c r="AP1" s="133"/>
+      <c r="AQ1" s="133"/>
+      <c r="AR1" s="133"/>
+      <c r="AS1" s="134" t="s">
         <v>12</v>
       </c>
-      <c r="AT1" s="81"/>
-      <c r="AU1" s="81"/>
-      <c r="AV1" s="81"/>
-      <c r="AW1" s="65" t="s">
+      <c r="AT1" s="133"/>
+      <c r="AU1" s="133"/>
+      <c r="AV1" s="133"/>
+      <c r="AW1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="68" t="s">
+      <c r="AX1" s="111"/>
+      <c r="AY1" s="111"/>
+      <c r="AZ1" s="112"/>
+      <c r="BA1" s="123" t="s">
         <v>13</v>
       </c>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
-      <c r="BG1" s="68"/>
-      <c r="BH1" s="68"/>
+      <c r="BB1" s="123"/>
+      <c r="BC1" s="123"/>
+      <c r="BD1" s="123"/>
+      <c r="BE1" s="123"/>
+      <c r="BF1" s="123"/>
+      <c r="BG1" s="123"/>
+      <c r="BH1" s="123"/>
       <c r="BI1" s="7"/>
     </row>
     <row r="2" spans="1:61">
-      <c r="A2" s="69"/>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="73"/>
-      <c r="Y2" s="73"/>
-      <c r="Z2" s="73"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="73"/>
-      <c r="AC2" s="73"/>
-      <c r="AD2" s="73"/>
-      <c r="AE2" s="73"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="73"/>
-      <c r="AI2" s="74"/>
-      <c r="AJ2" s="75" t="s">
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="124"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="125"/>
+      <c r="T2" s="125"/>
+      <c r="U2" s="125"/>
+      <c r="V2" s="125"/>
+      <c r="W2" s="125"/>
+      <c r="X2" s="125"/>
+      <c r="Y2" s="125"/>
+      <c r="Z2" s="125"/>
+      <c r="AA2" s="125"/>
+      <c r="AB2" s="125"/>
+      <c r="AC2" s="125"/>
+      <c r="AD2" s="125"/>
+      <c r="AE2" s="125"/>
+      <c r="AF2" s="125"/>
+      <c r="AG2" s="125"/>
+      <c r="AH2" s="125"/>
+      <c r="AI2" s="126"/>
+      <c r="AJ2" s="127" t="s">
         <v>14</v>
       </c>
-      <c r="AK2" s="76"/>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="77">
+      <c r="AK2" s="128"/>
+      <c r="AL2" s="128"/>
+      <c r="AM2" s="128"/>
+      <c r="AN2" s="129">
         <f>COUNTIF($AR:$AR,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="76"/>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76"/>
-      <c r="AS2" s="77">
+      <c r="AO2" s="127"/>
+      <c r="AP2" s="128"/>
+      <c r="AQ2" s="128"/>
+      <c r="AR2" s="128"/>
+      <c r="AS2" s="129">
         <f>COUNTIF($AR:$AR,"NG")</f>
         <v>13</v>
       </c>
-      <c r="AT2" s="76"/>
-      <c r="AU2" s="76"/>
-      <c r="AV2" s="76"/>
-      <c r="AW2" s="65" t="s">
+      <c r="AT2" s="128"/>
+      <c r="AU2" s="128"/>
+      <c r="AV2" s="128"/>
+      <c r="AW2" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="78" t="s">
+      <c r="AX2" s="111"/>
+      <c r="AY2" s="111"/>
+      <c r="AZ2" s="112"/>
+      <c r="BA2" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
-      <c r="BG2" s="68"/>
-      <c r="BH2" s="68"/>
+      <c r="BB2" s="123"/>
+      <c r="BC2" s="123"/>
+      <c r="BD2" s="123"/>
+      <c r="BE2" s="123"/>
+      <c r="BF2" s="123"/>
+      <c r="BG2" s="123"/>
+      <c r="BH2" s="123"/>
       <c r="BI2" s="7"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="111"/>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="118"/>
-      <c r="L3" s="118"/>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="118"/>
-      <c r="T3" s="118"/>
-      <c r="U3" s="118"/>
-      <c r="V3" s="118"/>
-      <c r="W3" s="118"/>
-      <c r="X3" s="118"/>
-      <c r="Y3" s="118"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="118"/>
-      <c r="AC3" s="118"/>
-      <c r="AD3" s="118"/>
-      <c r="AE3" s="118"/>
-      <c r="AF3" s="118"/>
-      <c r="AG3" s="118"/>
-      <c r="AH3" s="118"/>
-      <c r="AI3" s="119"/>
-      <c r="AJ3" s="65" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91"/>
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91"/>
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="91"/>
+      <c r="AH3" s="91"/>
+      <c r="AI3" s="92"/>
+      <c r="AJ3" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="84"/>
-      <c r="AP3" s="84"/>
-      <c r="AQ3" s="84"/>
-      <c r="AR3" s="84"/>
-      <c r="AS3" s="84"/>
-      <c r="AT3" s="84"/>
-      <c r="AU3" s="84"/>
-      <c r="AV3" s="85"/>
-      <c r="AW3" s="65"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="84"/>
-      <c r="BC3" s="84"/>
-      <c r="BD3" s="84"/>
-      <c r="BE3" s="84"/>
-      <c r="BF3" s="84"/>
-      <c r="BG3" s="84"/>
-      <c r="BH3" s="85"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="112"/>
+      <c r="AN3" s="113"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="114"/>
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="110"/>
+      <c r="AX3" s="111"/>
+      <c r="AY3" s="111"/>
+      <c r="AZ3" s="112"/>
+      <c r="BA3" s="113"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="114"/>
+      <c r="BF3" s="114"/>
+      <c r="BG3" s="114"/>
+      <c r="BH3" s="115"/>
       <c r="BI3" s="7"/>
     </row>
     <row r="4" spans="1:61">
-      <c r="A4" s="114"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="120"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="122"/>
-      <c r="AJ4" s="69" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="94"/>
+      <c r="O4" s="94"/>
+      <c r="P4" s="94"/>
+      <c r="Q4" s="94"/>
+      <c r="R4" s="94"/>
+      <c r="S4" s="94"/>
+      <c r="T4" s="94"/>
+      <c r="U4" s="94"/>
+      <c r="V4" s="94"/>
+      <c r="W4" s="94"/>
+      <c r="X4" s="94"/>
+      <c r="Y4" s="94"/>
+      <c r="Z4" s="94"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="94"/>
+      <c r="AC4" s="94"/>
+      <c r="AD4" s="94"/>
+      <c r="AE4" s="94"/>
+      <c r="AF4" s="94"/>
+      <c r="AG4" s="94"/>
+      <c r="AH4" s="94"/>
+      <c r="AI4" s="95"/>
+      <c r="AJ4" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="86"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="87"/>
-      <c r="AR4" s="87"/>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="88"/>
-      <c r="AW4" s="69" t="s">
+      <c r="AK4" s="117"/>
+      <c r="AL4" s="117"/>
+      <c r="AM4" s="118"/>
+      <c r="AN4" s="119"/>
+      <c r="AO4" s="120"/>
+      <c r="AP4" s="120"/>
+      <c r="AQ4" s="120"/>
+      <c r="AR4" s="120"/>
+      <c r="AS4" s="120"/>
+      <c r="AT4" s="120"/>
+      <c r="AU4" s="120"/>
+      <c r="AV4" s="121"/>
+      <c r="AW4" s="116" t="s">
         <v>19</v>
       </c>
-      <c r="AX4" s="70"/>
-      <c r="AY4" s="70"/>
-      <c r="AZ4" s="71"/>
-      <c r="BA4" s="86"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="87"/>
-      <c r="BF4" s="87"/>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="88"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="117"/>
+      <c r="AZ4" s="118"/>
+      <c r="BA4" s="119"/>
+      <c r="BB4" s="120"/>
+      <c r="BC4" s="120"/>
+      <c r="BD4" s="120"/>
+      <c r="BE4" s="120"/>
+      <c r="BF4" s="120"/>
+      <c r="BG4" s="120"/>
+      <c r="BH4" s="121"/>
     </row>
     <row r="5" spans="1:61" s="2" customFormat="1">
       <c r="A5" s="6"/>
@@ -5149,153 +5149,153 @@
       <c r="BI5" s="6"/>
     </row>
     <row r="6" spans="1:61" ht="14.25">
-      <c r="A6" s="123" t="s">
+      <c r="A6" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="123"/>
-      <c r="C6" s="89" t="s">
+      <c r="B6" s="96"/>
+      <c r="C6" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
-      <c r="F6" s="90"/>
-      <c r="G6" s="90"/>
-      <c r="H6" s="90"/>
-      <c r="I6" s="90"/>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="M6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="Q6" s="90"/>
-      <c r="R6" s="90"/>
-      <c r="S6" s="90"/>
-      <c r="T6" s="94" t="s">
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
+      <c r="O6" s="108"/>
+      <c r="P6" s="108"/>
+      <c r="Q6" s="108"/>
+      <c r="R6" s="108"/>
+      <c r="S6" s="108"/>
+      <c r="T6" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="95"/>
-      <c r="Z6" s="95"/>
-      <c r="AA6" s="95"/>
-      <c r="AB6" s="96"/>
-      <c r="AC6" s="94" t="s">
+      <c r="U6" s="99"/>
+      <c r="V6" s="99"/>
+      <c r="W6" s="99"/>
+      <c r="X6" s="99"/>
+      <c r="Y6" s="99"/>
+      <c r="Z6" s="99"/>
+      <c r="AA6" s="99"/>
+      <c r="AB6" s="100"/>
+      <c r="AC6" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="AD6" s="95"/>
-      <c r="AE6" s="95"/>
-      <c r="AF6" s="95"/>
-      <c r="AG6" s="95"/>
-      <c r="AH6" s="95"/>
-      <c r="AI6" s="95"/>
-      <c r="AJ6" s="95"/>
-      <c r="AK6" s="95"/>
-      <c r="AL6" s="95"/>
-      <c r="AM6" s="96"/>
-      <c r="AN6" s="94" t="s">
+      <c r="AD6" s="99"/>
+      <c r="AE6" s="99"/>
+      <c r="AF6" s="99"/>
+      <c r="AG6" s="99"/>
+      <c r="AH6" s="99"/>
+      <c r="AI6" s="99"/>
+      <c r="AJ6" s="99"/>
+      <c r="AK6" s="99"/>
+      <c r="AL6" s="99"/>
+      <c r="AM6" s="100"/>
+      <c r="AN6" s="98" t="s">
         <v>24</v>
       </c>
-      <c r="AO6" s="95"/>
-      <c r="AP6" s="95"/>
-      <c r="AQ6" s="96"/>
-      <c r="AR6" s="94" t="s">
+      <c r="AO6" s="99"/>
+      <c r="AP6" s="99"/>
+      <c r="AQ6" s="100"/>
+      <c r="AR6" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="AS6" s="95"/>
-      <c r="AT6" s="96"/>
-      <c r="AU6" s="94" t="s">
+      <c r="AS6" s="99"/>
+      <c r="AT6" s="100"/>
+      <c r="AU6" s="98" t="s">
         <v>26</v>
       </c>
-      <c r="AV6" s="95"/>
-      <c r="AW6" s="96"/>
-      <c r="AX6" s="94" t="s">
+      <c r="AV6" s="99"/>
+      <c r="AW6" s="100"/>
+      <c r="AX6" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="AY6" s="95"/>
-      <c r="AZ6" s="96"/>
-      <c r="BA6" s="100" t="s">
+      <c r="AY6" s="99"/>
+      <c r="AZ6" s="100"/>
+      <c r="BA6" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="BB6" s="100"/>
-      <c r="BC6" s="100"/>
-      <c r="BD6" s="100"/>
-      <c r="BE6" s="100"/>
-      <c r="BF6" s="100"/>
-      <c r="BG6" s="100"/>
-      <c r="BH6" s="100"/>
+      <c r="BB6" s="109"/>
+      <c r="BC6" s="109"/>
+      <c r="BD6" s="109"/>
+      <c r="BE6" s="109"/>
+      <c r="BF6" s="109"/>
+      <c r="BG6" s="109"/>
+      <c r="BH6" s="109"/>
       <c r="BI6" s="8"/>
     </row>
     <row r="7" spans="1:61" s="3" customFormat="1" ht="14.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="124"/>
-      <c r="C7" s="91" t="s">
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="105" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="92"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="92"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="92" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-      <c r="L7" s="92"/>
-      <c r="M7" s="93" t="s">
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="97"/>
-      <c r="U7" s="98"/>
-      <c r="V7" s="98"/>
-      <c r="W7" s="98"/>
-      <c r="X7" s="98"/>
-      <c r="Y7" s="98"/>
-      <c r="Z7" s="98"/>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="97"/>
-      <c r="AD7" s="98"/>
-      <c r="AE7" s="98"/>
-      <c r="AF7" s="98"/>
-      <c r="AG7" s="98"/>
-      <c r="AH7" s="98"/>
-      <c r="AI7" s="98"/>
-      <c r="AJ7" s="98"/>
-      <c r="AK7" s="98"/>
-      <c r="AL7" s="98"/>
-      <c r="AM7" s="99"/>
-      <c r="AN7" s="97"/>
-      <c r="AO7" s="98"/>
-      <c r="AP7" s="98"/>
-      <c r="AQ7" s="99"/>
-      <c r="AR7" s="97"/>
-      <c r="AS7" s="98"/>
-      <c r="AT7" s="99"/>
-      <c r="AU7" s="97"/>
-      <c r="AV7" s="98"/>
-      <c r="AW7" s="99"/>
-      <c r="AX7" s="97"/>
-      <c r="AY7" s="98"/>
-      <c r="AZ7" s="99"/>
-      <c r="BA7" s="100"/>
-      <c r="BB7" s="100"/>
-      <c r="BC7" s="100"/>
-      <c r="BD7" s="100"/>
-      <c r="BE7" s="100"/>
-      <c r="BF7" s="100"/>
-      <c r="BG7" s="100"/>
-      <c r="BH7" s="100"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="108"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="101"/>
+      <c r="U7" s="102"/>
+      <c r="V7" s="102"/>
+      <c r="W7" s="102"/>
+      <c r="X7" s="102"/>
+      <c r="Y7" s="102"/>
+      <c r="Z7" s="102"/>
+      <c r="AA7" s="102"/>
+      <c r="AB7" s="103"/>
+      <c r="AC7" s="101"/>
+      <c r="AD7" s="102"/>
+      <c r="AE7" s="102"/>
+      <c r="AF7" s="102"/>
+      <c r="AG7" s="102"/>
+      <c r="AH7" s="102"/>
+      <c r="AI7" s="102"/>
+      <c r="AJ7" s="102"/>
+      <c r="AK7" s="102"/>
+      <c r="AL7" s="102"/>
+      <c r="AM7" s="103"/>
+      <c r="AN7" s="101"/>
+      <c r="AO7" s="102"/>
+      <c r="AP7" s="102"/>
+      <c r="AQ7" s="103"/>
+      <c r="AR7" s="101"/>
+      <c r="AS7" s="102"/>
+      <c r="AT7" s="103"/>
+      <c r="AU7" s="101"/>
+      <c r="AV7" s="102"/>
+      <c r="AW7" s="103"/>
+      <c r="AX7" s="101"/>
+      <c r="AY7" s="102"/>
+      <c r="AZ7" s="103"/>
+      <c r="BA7" s="109"/>
+      <c r="BB7" s="109"/>
+      <c r="BC7" s="109"/>
+      <c r="BD7" s="109"/>
+      <c r="BE7" s="109"/>
+      <c r="BF7" s="109"/>
+      <c r="BG7" s="109"/>
+      <c r="BH7" s="109"/>
       <c r="BI7" s="9"/>
     </row>
     <row r="8" spans="1:61" s="4" customFormat="1" ht="51.75" customHeight="1">
@@ -5303,53 +5303,53 @@
         <v>1</v>
       </c>
       <c r="B8" s="55"/>
-      <c r="C8" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="56" t="s">
+      <c r="C8" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="60"/>
-      <c r="O8" s="60"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="62" t="s">
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="60"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="U8" s="63"/>
+      <c r="V8" s="63"/>
+      <c r="W8" s="63"/>
+      <c r="X8" s="63"/>
+      <c r="Y8" s="63"/>
+      <c r="Z8" s="63"/>
+      <c r="AA8" s="63"/>
+      <c r="AB8" s="63"/>
+      <c r="AC8" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="60"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="60"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="60"/>
-      <c r="AF8" s="60"/>
-      <c r="AG8" s="60"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="61"/>
+      <c r="AD8" s="63"/>
+      <c r="AE8" s="63"/>
+      <c r="AF8" s="63"/>
+      <c r="AG8" s="63"/>
+      <c r="AH8" s="63"/>
+      <c r="AI8" s="63"/>
+      <c r="AJ8" s="63"/>
+      <c r="AK8" s="63"/>
+      <c r="AL8" s="63"/>
+      <c r="AM8" s="64"/>
       <c r="AN8" s="48" t="s">
         <v>55</v>
       </c>
@@ -5365,7 +5365,7 @@
       <c r="AV8" s="49"/>
       <c r="AW8" s="50"/>
       <c r="AX8" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY8" s="49"/>
       <c r="AZ8" s="50"/>
@@ -5384,66 +5384,66 @@
       </c>
     </row>
     <row r="9" spans="1:61" s="4" customFormat="1" ht="33.75" hidden="1" customHeight="1">
-      <c r="A9" s="104"/>
-      <c r="B9" s="105"/>
-      <c r="C9" s="106"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107"/>
-      <c r="G9" s="107"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="107"/>
-      <c r="J9" s="107"/>
-      <c r="K9" s="107"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="109"/>
-      <c r="N9" s="109"/>
-      <c r="O9" s="109"/>
-      <c r="P9" s="109"/>
-      <c r="Q9" s="109"/>
-      <c r="R9" s="109"/>
-      <c r="S9" s="110"/>
-      <c r="T9" s="128"/>
-      <c r="U9" s="109"/>
-      <c r="V9" s="109"/>
-      <c r="W9" s="109"/>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="109"/>
-      <c r="AA9" s="109"/>
-      <c r="AB9" s="109"/>
-      <c r="AC9" s="129"/>
-      <c r="AD9" s="130"/>
-      <c r="AE9" s="130"/>
-      <c r="AF9" s="130"/>
-      <c r="AG9" s="130"/>
-      <c r="AH9" s="130"/>
-      <c r="AI9" s="130"/>
-      <c r="AJ9" s="130"/>
-      <c r="AK9" s="130"/>
-      <c r="AL9" s="130"/>
-      <c r="AM9" s="131"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="126"/>
-      <c r="AP9" s="126"/>
-      <c r="AQ9" s="127"/>
-      <c r="AR9" s="125"/>
-      <c r="AS9" s="126"/>
-      <c r="AT9" s="127"/>
-      <c r="AU9" s="125"/>
-      <c r="AV9" s="126"/>
-      <c r="AW9" s="127"/>
-      <c r="AX9" s="125"/>
-      <c r="AY9" s="126"/>
-      <c r="AZ9" s="127"/>
-      <c r="BA9" s="101"/>
-      <c r="BB9" s="102"/>
-      <c r="BC9" s="102"/>
-      <c r="BD9" s="102"/>
-      <c r="BE9" s="102"/>
-      <c r="BF9" s="102"/>
-      <c r="BG9" s="102"/>
-      <c r="BH9" s="103"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="79"/>
+      <c r="P9" s="79"/>
+      <c r="Q9" s="79"/>
+      <c r="R9" s="79"/>
+      <c r="S9" s="80"/>
+      <c r="T9" s="104"/>
+      <c r="U9" s="79"/>
+      <c r="V9" s="79"/>
+      <c r="W9" s="79"/>
+      <c r="X9" s="79"/>
+      <c r="Y9" s="79"/>
+      <c r="Z9" s="79"/>
+      <c r="AA9" s="79"/>
+      <c r="AB9" s="79"/>
+      <c r="AC9" s="67"/>
+      <c r="AD9" s="68"/>
+      <c r="AE9" s="68"/>
+      <c r="AF9" s="68"/>
+      <c r="AG9" s="68"/>
+      <c r="AH9" s="68"/>
+      <c r="AI9" s="68"/>
+      <c r="AJ9" s="68"/>
+      <c r="AK9" s="68"/>
+      <c r="AL9" s="68"/>
+      <c r="AM9" s="69"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="71"/>
+      <c r="AP9" s="71"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="71"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="70"/>
+      <c r="AV9" s="71"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="71"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="81"/>
+      <c r="BB9" s="82"/>
+      <c r="BC9" s="82"/>
+      <c r="BD9" s="82"/>
+      <c r="BE9" s="82"/>
+      <c r="BF9" s="82"/>
+      <c r="BG9" s="82"/>
+      <c r="BH9" s="83"/>
       <c r="BI9" s="10"/>
     </row>
     <row r="10" spans="1:61" s="4" customFormat="1" ht="67.5" customHeight="1">
@@ -5451,53 +5451,53 @@
         <v>2</v>
       </c>
       <c r="B10" s="55"/>
-      <c r="C10" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="56" t="s">
+      <c r="C10" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="62" t="s">
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="63"/>
+      <c r="O10" s="63"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="63"/>
+      <c r="R10" s="63"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="U10" s="63"/>
+      <c r="V10" s="63"/>
+      <c r="W10" s="63"/>
+      <c r="X10" s="63"/>
+      <c r="Y10" s="63"/>
+      <c r="Z10" s="63"/>
+      <c r="AA10" s="63"/>
+      <c r="AB10" s="63"/>
+      <c r="AC10" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="63" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="61"/>
+      <c r="AD10" s="63"/>
+      <c r="AE10" s="63"/>
+      <c r="AF10" s="63"/>
+      <c r="AG10" s="63"/>
+      <c r="AH10" s="63"/>
+      <c r="AI10" s="63"/>
+      <c r="AJ10" s="63"/>
+      <c r="AK10" s="63"/>
+      <c r="AL10" s="63"/>
+      <c r="AM10" s="64"/>
       <c r="AN10" s="48" t="s">
         <v>55</v>
       </c>
@@ -5513,7 +5513,7 @@
       <c r="AV10" s="49"/>
       <c r="AW10" s="50"/>
       <c r="AX10" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY10" s="49"/>
       <c r="AZ10" s="50"/>
@@ -5530,66 +5530,66 @@
       <c r="BI10" s="10"/>
     </row>
     <row r="11" spans="1:61" s="4" customFormat="1" ht="94.5" hidden="1" customHeight="1">
-      <c r="A11" s="104"/>
-      <c r="B11" s="105"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="107"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="109"/>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="110"/>
-      <c r="T11" s="128"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="109"/>
-      <c r="W11" s="109"/>
-      <c r="X11" s="109"/>
-      <c r="Y11" s="109"/>
-      <c r="Z11" s="109"/>
-      <c r="AA11" s="109"/>
-      <c r="AB11" s="109"/>
-      <c r="AC11" s="129"/>
-      <c r="AD11" s="130"/>
-      <c r="AE11" s="130"/>
-      <c r="AF11" s="130"/>
-      <c r="AG11" s="130"/>
-      <c r="AH11" s="130"/>
-      <c r="AI11" s="130"/>
-      <c r="AJ11" s="130"/>
-      <c r="AK11" s="130"/>
-      <c r="AL11" s="130"/>
-      <c r="AM11" s="131"/>
-      <c r="AN11" s="125"/>
-      <c r="AO11" s="126"/>
-      <c r="AP11" s="126"/>
-      <c r="AQ11" s="127"/>
-      <c r="AR11" s="125"/>
-      <c r="AS11" s="126"/>
-      <c r="AT11" s="127"/>
-      <c r="AU11" s="125"/>
-      <c r="AV11" s="126"/>
-      <c r="AW11" s="127"/>
-      <c r="AX11" s="125"/>
-      <c r="AY11" s="126"/>
-      <c r="AZ11" s="127"/>
-      <c r="BA11" s="101"/>
-      <c r="BB11" s="102"/>
-      <c r="BC11" s="102"/>
-      <c r="BD11" s="102"/>
-      <c r="BE11" s="102"/>
-      <c r="BF11" s="102"/>
-      <c r="BG11" s="102"/>
-      <c r="BH11" s="103"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="78"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="80"/>
+      <c r="T11" s="104"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="68"/>
+      <c r="AE11" s="68"/>
+      <c r="AF11" s="68"/>
+      <c r="AG11" s="68"/>
+      <c r="AH11" s="68"/>
+      <c r="AI11" s="68"/>
+      <c r="AJ11" s="68"/>
+      <c r="AK11" s="68"/>
+      <c r="AL11" s="68"/>
+      <c r="AM11" s="69"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="71"/>
+      <c r="AP11" s="71"/>
+      <c r="AQ11" s="72"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="71"/>
+      <c r="AT11" s="72"/>
+      <c r="AU11" s="70"/>
+      <c r="AV11" s="71"/>
+      <c r="AW11" s="72"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="71"/>
+      <c r="AZ11" s="72"/>
+      <c r="BA11" s="81"/>
+      <c r="BB11" s="82"/>
+      <c r="BC11" s="82"/>
+      <c r="BD11" s="82"/>
+      <c r="BE11" s="82"/>
+      <c r="BF11" s="82"/>
+      <c r="BG11" s="82"/>
+      <c r="BH11" s="83"/>
       <c r="BI11" s="10"/>
     </row>
     <row r="12" spans="1:61" s="4" customFormat="1" ht="64.5" customHeight="1">
@@ -5597,53 +5597,53 @@
         <v>3</v>
       </c>
       <c r="B12" s="55"/>
-      <c r="C12" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="56" t="s">
+      <c r="C12" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="63" t="s">
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="N12" s="62"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="62"/>
+      <c r="Q12" s="62"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="U12" s="63"/>
+      <c r="V12" s="63"/>
+      <c r="W12" s="63"/>
+      <c r="X12" s="63"/>
+      <c r="Y12" s="63"/>
+      <c r="Z12" s="63"/>
+      <c r="AA12" s="63"/>
+      <c r="AB12" s="64"/>
+      <c r="AC12" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="N12" s="59"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="59"/>
-      <c r="Q12" s="59"/>
-      <c r="R12" s="59"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="60"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="60"/>
-      <c r="AB12" s="61"/>
-      <c r="AC12" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD12" s="59"/>
-      <c r="AE12" s="59"/>
-      <c r="AF12" s="59"/>
-      <c r="AG12" s="59"/>
-      <c r="AH12" s="59"/>
-      <c r="AI12" s="59"/>
-      <c r="AJ12" s="59"/>
-      <c r="AK12" s="59"/>
-      <c r="AL12" s="59"/>
-      <c r="AM12" s="64"/>
+      <c r="AD12" s="62"/>
+      <c r="AE12" s="62"/>
+      <c r="AF12" s="62"/>
+      <c r="AG12" s="62"/>
+      <c r="AH12" s="62"/>
+      <c r="AI12" s="62"/>
+      <c r="AJ12" s="62"/>
+      <c r="AK12" s="62"/>
+      <c r="AL12" s="62"/>
+      <c r="AM12" s="73"/>
       <c r="AN12" s="48" t="s">
         <v>55</v>
       </c>
@@ -5659,7 +5659,7 @@
       <c r="AV12" s="49"/>
       <c r="AW12" s="50"/>
       <c r="AX12" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY12" s="49"/>
       <c r="AZ12" s="50"/>
@@ -5680,53 +5680,53 @@
         <v>4</v>
       </c>
       <c r="B13" s="55"/>
-      <c r="C13" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
-      <c r="H13" s="56" t="s">
+      <c r="C13" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="63" t="s">
+      <c r="I13" s="60"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="62"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="63"/>
+      <c r="Y13" s="63"/>
+      <c r="Z13" s="63"/>
+      <c r="AA13" s="63"/>
+      <c r="AB13" s="64"/>
+      <c r="AC13" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
-      <c r="AB13" s="61"/>
-      <c r="AC13" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD13" s="59"/>
-      <c r="AE13" s="59"/>
-      <c r="AF13" s="59"/>
-      <c r="AG13" s="59"/>
-      <c r="AH13" s="59"/>
-      <c r="AI13" s="59"/>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="59"/>
-      <c r="AL13" s="59"/>
-      <c r="AM13" s="64"/>
+      <c r="AD13" s="62"/>
+      <c r="AE13" s="62"/>
+      <c r="AF13" s="62"/>
+      <c r="AG13" s="62"/>
+      <c r="AH13" s="62"/>
+      <c r="AI13" s="62"/>
+      <c r="AJ13" s="62"/>
+      <c r="AK13" s="62"/>
+      <c r="AL13" s="62"/>
+      <c r="AM13" s="73"/>
       <c r="AN13" s="48" t="s">
         <v>55</v>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="AV13" s="49"/>
       <c r="AW13" s="50"/>
       <c r="AX13" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY13" s="49"/>
       <c r="AZ13" s="50"/>
@@ -5763,53 +5763,53 @@
         <v>5</v>
       </c>
       <c r="B14" s="55"/>
-      <c r="C14" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="56" t="s">
+      <c r="C14" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="63" t="s">
+      <c r="I14" s="60"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="60"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="N14" s="62"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+      <c r="Y14" s="63"/>
+      <c r="Z14" s="63"/>
+      <c r="AA14" s="63"/>
+      <c r="AB14" s="63"/>
+      <c r="AC14" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="59"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="U14" s="60"/>
-      <c r="V14" s="60"/>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD14" s="59"/>
-      <c r="AE14" s="59"/>
-      <c r="AF14" s="59"/>
-      <c r="AG14" s="59"/>
-      <c r="AH14" s="59"/>
-      <c r="AI14" s="59"/>
-      <c r="AJ14" s="59"/>
-      <c r="AK14" s="59"/>
-      <c r="AL14" s="59"/>
-      <c r="AM14" s="64"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="73"/>
       <c r="AN14" s="48" t="s">
         <v>55</v>
       </c>
@@ -5825,7 +5825,7 @@
       <c r="AV14" s="49"/>
       <c r="AW14" s="50"/>
       <c r="AX14" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY14" s="49"/>
       <c r="AZ14" s="50"/>
@@ -5846,53 +5846,53 @@
         <v>6</v>
       </c>
       <c r="B15" s="55"/>
-      <c r="C15" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="56" t="s">
+      <c r="C15" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59" t="s">
+      <c r="I15" s="60"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="60"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="63"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="63"/>
+      <c r="R15" s="63"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="N15" s="60"/>
-      <c r="O15" s="60"/>
-      <c r="P15" s="60"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="62" t="s">
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+      <c r="Y15" s="63"/>
+      <c r="Z15" s="63"/>
+      <c r="AA15" s="63"/>
+      <c r="AB15" s="63"/>
+      <c r="AC15" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
-      <c r="AB15" s="60"/>
-      <c r="AC15" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD15" s="60"/>
-      <c r="AE15" s="60"/>
-      <c r="AF15" s="60"/>
-      <c r="AG15" s="60"/>
-      <c r="AH15" s="60"/>
-      <c r="AI15" s="60"/>
-      <c r="AJ15" s="60"/>
-      <c r="AK15" s="60"/>
-      <c r="AL15" s="60"/>
-      <c r="AM15" s="61"/>
+      <c r="AD15" s="63"/>
+      <c r="AE15" s="63"/>
+      <c r="AF15" s="63"/>
+      <c r="AG15" s="63"/>
+      <c r="AH15" s="63"/>
+      <c r="AI15" s="63"/>
+      <c r="AJ15" s="63"/>
+      <c r="AK15" s="63"/>
+      <c r="AL15" s="63"/>
+      <c r="AM15" s="64"/>
       <c r="AN15" s="48" t="s">
         <v>55</v>
       </c>
@@ -5908,7 +5908,7 @@
       <c r="AV15" s="49"/>
       <c r="AW15" s="50"/>
       <c r="AX15" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY15" s="49"/>
       <c r="AZ15" s="50"/>
@@ -5931,53 +5931,53 @@
         <v>7</v>
       </c>
       <c r="B16" s="55"/>
-      <c r="C16" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="56" t="s">
+      <c r="C16" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59" t="s">
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="63"/>
+      <c r="O16" s="63"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="63"/>
+      <c r="R16" s="63"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="60"/>
-      <c r="O16" s="60"/>
-      <c r="P16" s="60"/>
-      <c r="Q16" s="60"/>
-      <c r="R16" s="60"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="62" t="s">
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+      <c r="Y16" s="63"/>
+      <c r="Z16" s="63"/>
+      <c r="AA16" s="63"/>
+      <c r="AB16" s="63"/>
+      <c r="AC16" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="U16" s="60"/>
-      <c r="V16" s="60"/>
-      <c r="W16" s="60"/>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="60"/>
-      <c r="Z16" s="60"/>
-      <c r="AA16" s="60"/>
-      <c r="AB16" s="60"/>
-      <c r="AC16" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD16" s="60"/>
-      <c r="AE16" s="60"/>
-      <c r="AF16" s="60"/>
-      <c r="AG16" s="60"/>
-      <c r="AH16" s="60"/>
-      <c r="AI16" s="60"/>
-      <c r="AJ16" s="60"/>
-      <c r="AK16" s="60"/>
-      <c r="AL16" s="60"/>
-      <c r="AM16" s="61"/>
+      <c r="AD16" s="63"/>
+      <c r="AE16" s="63"/>
+      <c r="AF16" s="63"/>
+      <c r="AG16" s="63"/>
+      <c r="AH16" s="63"/>
+      <c r="AI16" s="63"/>
+      <c r="AJ16" s="63"/>
+      <c r="AK16" s="63"/>
+      <c r="AL16" s="63"/>
+      <c r="AM16" s="64"/>
       <c r="AN16" s="48" t="s">
         <v>55</v>
       </c>
@@ -5993,7 +5993,7 @@
       <c r="AV16" s="49"/>
       <c r="AW16" s="50"/>
       <c r="AX16" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY16" s="49"/>
       <c r="AZ16" s="50"/>
@@ -6016,53 +6016,53 @@
         <v>8</v>
       </c>
       <c r="B17" s="55"/>
-      <c r="C17" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="56" t="s">
+      <c r="C17" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59" t="s">
+      <c r="I17" s="60"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="60"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="N17" s="60"/>
-      <c r="O17" s="60"/>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="60"/>
-      <c r="R17" s="60"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="62" t="s">
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="63"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="U17" s="60"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="60"/>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="60"/>
-      <c r="Z17" s="60"/>
-      <c r="AA17" s="60"/>
-      <c r="AB17" s="60"/>
-      <c r="AC17" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD17" s="60"/>
-      <c r="AE17" s="60"/>
-      <c r="AF17" s="60"/>
-      <c r="AG17" s="60"/>
-      <c r="AH17" s="60"/>
-      <c r="AI17" s="60"/>
-      <c r="AJ17" s="60"/>
-      <c r="AK17" s="60"/>
-      <c r="AL17" s="60"/>
-      <c r="AM17" s="61"/>
+      <c r="AD17" s="63"/>
+      <c r="AE17" s="63"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="63"/>
+      <c r="AH17" s="63"/>
+      <c r="AI17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="64"/>
       <c r="AN17" s="48" t="s">
         <v>55</v>
       </c>
@@ -6078,7 +6078,7 @@
       <c r="AV17" s="49"/>
       <c r="AW17" s="50"/>
       <c r="AX17" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY17" s="49"/>
       <c r="AZ17" s="50"/>
@@ -6101,53 +6101,53 @@
         <v>9</v>
       </c>
       <c r="B18" s="55"/>
-      <c r="C18" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="56" t="s">
+      <c r="C18" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59" t="s">
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="N18" s="60"/>
-      <c r="O18" s="60"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="62" t="s">
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="60"/>
-      <c r="Z18" s="60"/>
-      <c r="AA18" s="60"/>
-      <c r="AB18" s="60"/>
-      <c r="AC18" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD18" s="60"/>
-      <c r="AE18" s="60"/>
-      <c r="AF18" s="60"/>
-      <c r="AG18" s="60"/>
-      <c r="AH18" s="60"/>
-      <c r="AI18" s="60"/>
-      <c r="AJ18" s="60"/>
-      <c r="AK18" s="60"/>
-      <c r="AL18" s="60"/>
-      <c r="AM18" s="61"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="64"/>
       <c r="AN18" s="48" t="s">
         <v>55</v>
       </c>
@@ -6163,7 +6163,7 @@
       <c r="AV18" s="49"/>
       <c r="AW18" s="50"/>
       <c r="AX18" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY18" s="49"/>
       <c r="AZ18" s="50"/>
@@ -6186,53 +6186,53 @@
         <v>10</v>
       </c>
       <c r="B19" s="55"/>
-      <c r="C19" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="56" t="s">
+      <c r="C19" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59" t="s">
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="62" t="s">
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="U19" s="60"/>
-      <c r="V19" s="60"/>
-      <c r="W19" s="60"/>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="60"/>
-      <c r="Z19" s="60"/>
-      <c r="AA19" s="60"/>
-      <c r="AB19" s="60"/>
-      <c r="AC19" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD19" s="60"/>
-      <c r="AE19" s="60"/>
-      <c r="AF19" s="60"/>
-      <c r="AG19" s="60"/>
-      <c r="AH19" s="60"/>
-      <c r="AI19" s="60"/>
-      <c r="AJ19" s="60"/>
-      <c r="AK19" s="60"/>
-      <c r="AL19" s="60"/>
-      <c r="AM19" s="61"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="64"/>
       <c r="AN19" s="48" t="s">
         <v>55</v>
       </c>
@@ -6248,7 +6248,7 @@
       <c r="AV19" s="49"/>
       <c r="AW19" s="50"/>
       <c r="AX19" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY19" s="49"/>
       <c r="AZ19" s="50"/>
@@ -6271,53 +6271,53 @@
         <v>11</v>
       </c>
       <c r="B20" s="55"/>
-      <c r="C20" s="56" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="56" t="s">
+      <c r="C20" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59" t="s">
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="62" t="s">
+        <v>91</v>
+      </c>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="65" t="s">
         <v>92</v>
       </c>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="60"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="62" t="s">
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="U20" s="60"/>
-      <c r="V20" s="60"/>
-      <c r="W20" s="60"/>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="60"/>
-      <c r="Z20" s="60"/>
-      <c r="AA20" s="60"/>
-      <c r="AB20" s="60"/>
-      <c r="AC20" s="63" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD20" s="60"/>
-      <c r="AE20" s="60"/>
-      <c r="AF20" s="60"/>
-      <c r="AG20" s="60"/>
-      <c r="AH20" s="60"/>
-      <c r="AI20" s="60"/>
-      <c r="AJ20" s="60"/>
-      <c r="AK20" s="60"/>
-      <c r="AL20" s="60"/>
-      <c r="AM20" s="61"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="64"/>
       <c r="AN20" s="48" t="s">
         <v>55</v>
       </c>
@@ -6333,7 +6333,7 @@
       <c r="AV20" s="49"/>
       <c r="AW20" s="50"/>
       <c r="AX20" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY20" s="49"/>
       <c r="AZ20" s="50"/>
@@ -6356,53 +6356,53 @@
         <v>12</v>
       </c>
       <c r="B21" s="55"/>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="56" t="s">
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59" t="s">
+      <c r="I21" s="60"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="60"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="60"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="60"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="U21" s="60"/>
-      <c r="V21" s="60"/>
-      <c r="W21" s="60"/>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="60"/>
-      <c r="Z21" s="60"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="60"/>
-      <c r="AC21" s="63" t="s">
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AD21" s="60"/>
-      <c r="AE21" s="60"/>
-      <c r="AF21" s="60"/>
-      <c r="AG21" s="60"/>
-      <c r="AH21" s="60"/>
-      <c r="AI21" s="60"/>
-      <c r="AJ21" s="60"/>
-      <c r="AK21" s="60"/>
-      <c r="AL21" s="60"/>
-      <c r="AM21" s="61"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="64"/>
       <c r="AN21" s="48" t="s">
         <v>55</v>
       </c>
@@ -6420,20 +6420,20 @@
       <c r="AV21" s="49"/>
       <c r="AW21" s="50"/>
       <c r="AX21" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY21" s="49"/>
       <c r="AZ21" s="50"/>
-      <c r="BA21" s="132" t="s">
+      <c r="BA21" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="BB21" s="133"/>
-      <c r="BC21" s="133"/>
-      <c r="BD21" s="133"/>
-      <c r="BE21" s="133"/>
-      <c r="BF21" s="133"/>
-      <c r="BG21" s="133"/>
-      <c r="BH21" s="134"/>
+      <c r="BB21" s="57"/>
+      <c r="BC21" s="57"/>
+      <c r="BD21" s="57"/>
+      <c r="BE21" s="57"/>
+      <c r="BF21" s="57"/>
+      <c r="BG21" s="57"/>
+      <c r="BH21" s="58"/>
       <c r="BI21" s="10"/>
     </row>
     <row r="22" spans="1:61" s="4" customFormat="1" ht="45.75" customHeight="1">
@@ -6441,53 +6441,53 @@
         <v>13</v>
       </c>
       <c r="B22" s="55"/>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="56" t="s">
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59" t="s">
+      <c r="I22" s="60"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="60"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="N22" s="60"/>
-      <c r="O22" s="60"/>
-      <c r="P22" s="60"/>
-      <c r="Q22" s="60"/>
-      <c r="R22" s="60"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="62" t="s">
-        <v>78</v>
-      </c>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="63" t="s">
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AD22" s="60"/>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60"/>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="61"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="64"/>
       <c r="AN22" s="48" t="s">
         <v>55</v>
       </c>
@@ -6505,7 +6505,7 @@
       <c r="AV22" s="49"/>
       <c r="AW22" s="50"/>
       <c r="AX22" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY22" s="49"/>
       <c r="AZ22" s="50"/>
@@ -6526,53 +6526,53 @@
         <v>14</v>
       </c>
       <c r="B23" s="55"/>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="56" t="s">
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59" t="s">
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="60"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="N23" s="60"/>
-      <c r="O23" s="60"/>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="60"/>
-      <c r="R23" s="60"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="62" t="s">
-        <v>79</v>
-      </c>
-      <c r="U23" s="60"/>
-      <c r="V23" s="60"/>
-      <c r="W23" s="60"/>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="60"/>
-      <c r="Z23" s="60"/>
-      <c r="AA23" s="60"/>
-      <c r="AB23" s="60"/>
-      <c r="AC23" s="63" t="s">
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AD23" s="60"/>
-      <c r="AE23" s="60"/>
-      <c r="AF23" s="60"/>
-      <c r="AG23" s="60"/>
-      <c r="AH23" s="60"/>
-      <c r="AI23" s="60"/>
-      <c r="AJ23" s="60"/>
-      <c r="AK23" s="60"/>
-      <c r="AL23" s="60"/>
-      <c r="AM23" s="61"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="64"/>
       <c r="AN23" s="48" t="s">
         <v>55</v>
       </c>
@@ -6590,7 +6590,7 @@
       <c r="AV23" s="49"/>
       <c r="AW23" s="50"/>
       <c r="AX23" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY23" s="49"/>
       <c r="AZ23" s="50"/>
@@ -6609,53 +6609,53 @@
         <v>15</v>
       </c>
       <c r="B24" s="55"/>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="56" t="s">
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59" t="s">
+      <c r="I24" s="60"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="60"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="N24" s="60"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="60"/>
-      <c r="Q24" s="60"/>
-      <c r="R24" s="60"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="62" t="s">
-        <v>80</v>
-      </c>
-      <c r="U24" s="60"/>
-      <c r="V24" s="60"/>
-      <c r="W24" s="60"/>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="60"/>
-      <c r="Z24" s="60"/>
-      <c r="AA24" s="60"/>
-      <c r="AB24" s="60"/>
-      <c r="AC24" s="63" t="s">
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AD24" s="60"/>
-      <c r="AE24" s="60"/>
-      <c r="AF24" s="60"/>
-      <c r="AG24" s="60"/>
-      <c r="AH24" s="60"/>
-      <c r="AI24" s="60"/>
-      <c r="AJ24" s="60"/>
-      <c r="AK24" s="60"/>
-      <c r="AL24" s="60"/>
-      <c r="AM24" s="61"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="64"/>
       <c r="AN24" s="48" t="s">
         <v>55</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="AV24" s="49"/>
       <c r="AW24" s="50"/>
       <c r="AX24" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY24" s="49"/>
       <c r="AZ24" s="50"/>
@@ -6692,53 +6692,53 @@
         <v>16</v>
       </c>
       <c r="B25" s="55"/>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="56" t="s">
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59" t="s">
+      <c r="I25" s="60"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="60"/>
-      <c r="O25" s="60"/>
-      <c r="P25" s="60"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="U25" s="60"/>
-      <c r="V25" s="60"/>
-      <c r="W25" s="60"/>
-      <c r="X25" s="60"/>
-      <c r="Y25" s="60"/>
-      <c r="Z25" s="60"/>
-      <c r="AA25" s="60"/>
-      <c r="AB25" s="60"/>
-      <c r="AC25" s="63" t="s">
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="65" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="66" t="s">
         <v>60</v>
       </c>
-      <c r="AD25" s="60"/>
-      <c r="AE25" s="60"/>
-      <c r="AF25" s="60"/>
-      <c r="AG25" s="60"/>
-      <c r="AH25" s="60"/>
-      <c r="AI25" s="60"/>
-      <c r="AJ25" s="60"/>
-      <c r="AK25" s="60"/>
-      <c r="AL25" s="60"/>
-      <c r="AM25" s="61"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="64"/>
       <c r="AN25" s="48" t="s">
         <v>55</v>
       </c>
@@ -6756,7 +6756,7 @@
       <c r="AV25" s="49"/>
       <c r="AW25" s="50"/>
       <c r="AX25" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY25" s="49"/>
       <c r="AZ25" s="50"/>
@@ -6775,53 +6775,53 @@
         <v>17</v>
       </c>
       <c r="B26" s="55"/>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="56" t="s">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="57"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59" t="s">
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="N26" s="60"/>
-      <c r="O26" s="60"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-      <c r="R26" s="60"/>
-      <c r="S26" s="61"/>
-      <c r="T26" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="U26" s="60"/>
-      <c r="V26" s="60"/>
-      <c r="W26" s="60"/>
-      <c r="X26" s="60"/>
-      <c r="Y26" s="60"/>
-      <c r="Z26" s="60"/>
-      <c r="AA26" s="60"/>
-      <c r="AB26" s="60"/>
-      <c r="AC26" s="63" t="s">
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="AD26" s="60"/>
-      <c r="AE26" s="60"/>
-      <c r="AF26" s="60"/>
-      <c r="AG26" s="60"/>
-      <c r="AH26" s="60"/>
-      <c r="AI26" s="60"/>
-      <c r="AJ26" s="60"/>
-      <c r="AK26" s="60"/>
-      <c r="AL26" s="60"/>
-      <c r="AM26" s="61"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="64"/>
       <c r="AN26" s="48" t="s">
         <v>55</v>
       </c>
@@ -6839,7 +6839,7 @@
       <c r="AV26" s="49"/>
       <c r="AW26" s="50"/>
       <c r="AX26" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY26" s="49"/>
       <c r="AZ26" s="50"/>
@@ -6860,53 +6860,53 @@
         <v>18</v>
       </c>
       <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="56" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="57"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59" t="s">
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="63" t="s">
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="65" t="s">
+        <v>82</v>
+      </c>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="61"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="64"/>
       <c r="AN27" s="48" t="s">
         <v>55</v>
       </c>
@@ -6924,7 +6924,7 @@
       <c r="AV27" s="49"/>
       <c r="AW27" s="50"/>
       <c r="AX27" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY27" s="49"/>
       <c r="AZ27" s="50"/>
@@ -6943,53 +6943,53 @@
         <v>19</v>
       </c>
       <c r="B28" s="55"/>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="56" t="s">
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59" t="s">
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="N28" s="60"/>
-      <c r="O28" s="60"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-      <c r="R28" s="60"/>
-      <c r="S28" s="61"/>
-      <c r="T28" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="U28" s="60"/>
-      <c r="V28" s="60"/>
-      <c r="W28" s="60"/>
-      <c r="X28" s="60"/>
-      <c r="Y28" s="60"/>
-      <c r="Z28" s="60"/>
-      <c r="AA28" s="60"/>
-      <c r="AB28" s="60"/>
-      <c r="AC28" s="63" t="s">
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AD28" s="60"/>
-      <c r="AE28" s="60"/>
-      <c r="AF28" s="60"/>
-      <c r="AG28" s="60"/>
-      <c r="AH28" s="60"/>
-      <c r="AI28" s="60"/>
-      <c r="AJ28" s="60"/>
-      <c r="AK28" s="60"/>
-      <c r="AL28" s="60"/>
-      <c r="AM28" s="61"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="64"/>
       <c r="AN28" s="48" t="s">
         <v>55</v>
       </c>
@@ -7007,7 +7007,7 @@
       <c r="AV28" s="49"/>
       <c r="AW28" s="50"/>
       <c r="AX28" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY28" s="49"/>
       <c r="AZ28" s="50"/>
@@ -7026,53 +7026,53 @@
         <v>20</v>
       </c>
       <c r="B29" s="55"/>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="56" t="s">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59" t="s">
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="N29" s="60"/>
-      <c r="O29" s="60"/>
-      <c r="P29" s="60"/>
-      <c r="Q29" s="60"/>
-      <c r="R29" s="60"/>
-      <c r="S29" s="61"/>
-      <c r="T29" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="U29" s="60"/>
-      <c r="V29" s="60"/>
-      <c r="W29" s="60"/>
-      <c r="X29" s="60"/>
-      <c r="Y29" s="60"/>
-      <c r="Z29" s="60"/>
-      <c r="AA29" s="60"/>
-      <c r="AB29" s="60"/>
-      <c r="AC29" s="63" t="s">
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AD29" s="60"/>
-      <c r="AE29" s="60"/>
-      <c r="AF29" s="60"/>
-      <c r="AG29" s="60"/>
-      <c r="AH29" s="60"/>
-      <c r="AI29" s="60"/>
-      <c r="AJ29" s="60"/>
-      <c r="AK29" s="60"/>
-      <c r="AL29" s="60"/>
-      <c r="AM29" s="61"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="64"/>
       <c r="AN29" s="48" t="s">
         <v>55</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="AV29" s="49"/>
       <c r="AW29" s="50"/>
       <c r="AX29" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY29" s="49"/>
       <c r="AZ29" s="50"/>
@@ -7109,53 +7109,53 @@
         <v>21</v>
       </c>
       <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="56" t="s">
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59" t="s">
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="60"/>
-      <c r="Q30" s="60"/>
-      <c r="R30" s="60"/>
-      <c r="S30" s="61"/>
-      <c r="T30" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="U30" s="60"/>
-      <c r="V30" s="60"/>
-      <c r="W30" s="60"/>
-      <c r="X30" s="60"/>
-      <c r="Y30" s="60"/>
-      <c r="Z30" s="60"/>
-      <c r="AA30" s="60"/>
-      <c r="AB30" s="60"/>
-      <c r="AC30" s="63" t="s">
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="65" t="s">
+        <v>85</v>
+      </c>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AD30" s="60"/>
-      <c r="AE30" s="60"/>
-      <c r="AF30" s="60"/>
-      <c r="AG30" s="60"/>
-      <c r="AH30" s="60"/>
-      <c r="AI30" s="60"/>
-      <c r="AJ30" s="60"/>
-      <c r="AK30" s="60"/>
-      <c r="AL30" s="60"/>
-      <c r="AM30" s="61"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="64"/>
       <c r="AN30" s="48" t="s">
         <v>55</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="AV30" s="49"/>
       <c r="AW30" s="50"/>
       <c r="AX30" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY30" s="49"/>
       <c r="AZ30" s="50"/>
@@ -7192,53 +7192,53 @@
         <v>22</v>
       </c>
       <c r="B31" s="55"/>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="56" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="59" t="s">
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="N31" s="60"/>
-      <c r="O31" s="60"/>
-      <c r="P31" s="60"/>
-      <c r="Q31" s="60"/>
-      <c r="R31" s="60"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="62" t="s">
-        <v>87</v>
-      </c>
-      <c r="U31" s="60"/>
-      <c r="V31" s="60"/>
-      <c r="W31" s="60"/>
-      <c r="X31" s="60"/>
-      <c r="Y31" s="60"/>
-      <c r="Z31" s="60"/>
-      <c r="AA31" s="60"/>
-      <c r="AB31" s="60"/>
-      <c r="AC31" s="63" t="s">
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="AD31" s="60"/>
-      <c r="AE31" s="60"/>
-      <c r="AF31" s="60"/>
-      <c r="AG31" s="60"/>
-      <c r="AH31" s="60"/>
-      <c r="AI31" s="60"/>
-      <c r="AJ31" s="60"/>
-      <c r="AK31" s="60"/>
-      <c r="AL31" s="60"/>
-      <c r="AM31" s="61"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="64"/>
       <c r="AN31" s="48" t="s">
         <v>55</v>
       </c>
@@ -7256,7 +7256,7 @@
       <c r="AV31" s="49"/>
       <c r="AW31" s="50"/>
       <c r="AX31" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY31" s="49"/>
       <c r="AZ31" s="50"/>
@@ -7275,53 +7275,53 @@
         <v>23</v>
       </c>
       <c r="B32" s="55"/>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="56" t="s">
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="58"/>
-      <c r="M32" s="59" t="s">
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="N32" s="60"/>
-      <c r="O32" s="60"/>
-      <c r="P32" s="60"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="61"/>
-      <c r="T32" s="62" t="s">
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="U32" s="60"/>
-      <c r="V32" s="60"/>
-      <c r="W32" s="60"/>
-      <c r="X32" s="60"/>
-      <c r="Y32" s="60"/>
-      <c r="Z32" s="60"/>
-      <c r="AA32" s="60"/>
-      <c r="AB32" s="60"/>
-      <c r="AC32" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD32" s="60"/>
-      <c r="AE32" s="60"/>
-      <c r="AF32" s="60"/>
-      <c r="AG32" s="60"/>
-      <c r="AH32" s="60"/>
-      <c r="AI32" s="60"/>
-      <c r="AJ32" s="60"/>
-      <c r="AK32" s="60"/>
-      <c r="AL32" s="60"/>
-      <c r="AM32" s="61"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="64"/>
       <c r="AN32" s="48" t="s">
         <v>55</v>
       </c>
@@ -7339,7 +7339,7 @@
       <c r="AV32" s="49"/>
       <c r="AW32" s="50"/>
       <c r="AX32" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY32" s="49"/>
       <c r="AZ32" s="50"/>
@@ -7358,53 +7358,53 @@
         <v>24</v>
       </c>
       <c r="B33" s="55"/>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="56" t="s">
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="58"/>
-      <c r="M33" s="59" t="s">
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="N33" s="60"/>
-      <c r="O33" s="60"/>
-      <c r="P33" s="60"/>
-      <c r="Q33" s="60"/>
-      <c r="R33" s="60"/>
-      <c r="S33" s="61"/>
-      <c r="T33" s="62" t="s">
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="U33" s="60"/>
-      <c r="V33" s="60"/>
-      <c r="W33" s="60"/>
-      <c r="X33" s="60"/>
-      <c r="Y33" s="60"/>
-      <c r="Z33" s="60"/>
-      <c r="AA33" s="60"/>
-      <c r="AB33" s="60"/>
-      <c r="AC33" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD33" s="60"/>
-      <c r="AE33" s="60"/>
-      <c r="AF33" s="60"/>
-      <c r="AG33" s="60"/>
-      <c r="AH33" s="60"/>
-      <c r="AI33" s="60"/>
-      <c r="AJ33" s="60"/>
-      <c r="AK33" s="60"/>
-      <c r="AL33" s="60"/>
-      <c r="AM33" s="61"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="64"/>
       <c r="AN33" s="48" t="s">
         <v>55</v>
       </c>
@@ -7422,7 +7422,7 @@
       <c r="AV33" s="49"/>
       <c r="AW33" s="50"/>
       <c r="AX33" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY33" s="49"/>
       <c r="AZ33" s="50"/>
@@ -7441,53 +7441,53 @@
         <v>25</v>
       </c>
       <c r="B34" s="55"/>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="56" t="s">
+      <c r="D34" s="60"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="59" t="s">
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="60"/>
-      <c r="Q34" s="60"/>
-      <c r="R34" s="60"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="62" t="s">
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="U34" s="60"/>
-      <c r="V34" s="60"/>
-      <c r="W34" s="60"/>
-      <c r="X34" s="60"/>
-      <c r="Y34" s="60"/>
-      <c r="Z34" s="60"/>
-      <c r="AA34" s="60"/>
-      <c r="AB34" s="60"/>
-      <c r="AC34" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD34" s="60"/>
-      <c r="AE34" s="60"/>
-      <c r="AF34" s="60"/>
-      <c r="AG34" s="60"/>
-      <c r="AH34" s="60"/>
-      <c r="AI34" s="60"/>
-      <c r="AJ34" s="60"/>
-      <c r="AK34" s="60"/>
-      <c r="AL34" s="60"/>
-      <c r="AM34" s="61"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="64"/>
       <c r="AN34" s="48" t="s">
         <v>55</v>
       </c>
@@ -7505,7 +7505,7 @@
       <c r="AV34" s="49"/>
       <c r="AW34" s="50"/>
       <c r="AX34" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY34" s="49"/>
       <c r="AZ34" s="50"/>
@@ -7524,53 +7524,53 @@
         <v>26</v>
       </c>
       <c r="B35" s="55"/>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="56" t="s">
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="58"/>
-      <c r="M35" s="59" t="s">
+      <c r="I35" s="60"/>
+      <c r="J35" s="60"/>
+      <c r="K35" s="60"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="63"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="63"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="N35" s="60"/>
-      <c r="O35" s="60"/>
-      <c r="P35" s="60"/>
-      <c r="Q35" s="60"/>
-      <c r="R35" s="60"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="62" t="s">
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="U35" s="60"/>
-      <c r="V35" s="60"/>
-      <c r="W35" s="60"/>
-      <c r="X35" s="60"/>
-      <c r="Y35" s="60"/>
-      <c r="Z35" s="60"/>
-      <c r="AA35" s="60"/>
-      <c r="AB35" s="60"/>
-      <c r="AC35" s="63" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD35" s="60"/>
-      <c r="AE35" s="60"/>
-      <c r="AF35" s="60"/>
-      <c r="AG35" s="60"/>
-      <c r="AH35" s="60"/>
-      <c r="AI35" s="60"/>
-      <c r="AJ35" s="60"/>
-      <c r="AK35" s="60"/>
-      <c r="AL35" s="60"/>
-      <c r="AM35" s="61"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="63"/>
+      <c r="AG35" s="63"/>
+      <c r="AH35" s="63"/>
+      <c r="AI35" s="63"/>
+      <c r="AJ35" s="63"/>
+      <c r="AK35" s="63"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="64"/>
       <c r="AN35" s="48" t="s">
         <v>55</v>
       </c>
@@ -7588,7 +7588,7 @@
       <c r="AV35" s="49"/>
       <c r="AW35" s="50"/>
       <c r="AX35" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY35" s="49"/>
       <c r="AZ35" s="50"/>
@@ -7607,53 +7607,53 @@
         <v>27</v>
       </c>
       <c r="B36" s="55"/>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="56" t="s">
+      <c r="D36" s="60"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="58"/>
-      <c r="M36" s="59" t="s">
+      <c r="I36" s="60"/>
+      <c r="J36" s="60"/>
+      <c r="K36" s="60"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="63"/>
+      <c r="Q36" s="63"/>
+      <c r="R36" s="63"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="N36" s="60"/>
-      <c r="O36" s="60"/>
-      <c r="P36" s="60"/>
-      <c r="Q36" s="60"/>
-      <c r="R36" s="60"/>
-      <c r="S36" s="61"/>
-      <c r="T36" s="62" t="s">
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="63"/>
+      <c r="Y36" s="63"/>
+      <c r="Z36" s="63"/>
+      <c r="AA36" s="63"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="U36" s="60"/>
-      <c r="V36" s="60"/>
-      <c r="W36" s="60"/>
-      <c r="X36" s="60"/>
-      <c r="Y36" s="60"/>
-      <c r="Z36" s="60"/>
-      <c r="AA36" s="60"/>
-      <c r="AB36" s="60"/>
-      <c r="AC36" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD36" s="60"/>
-      <c r="AE36" s="60"/>
-      <c r="AF36" s="60"/>
-      <c r="AG36" s="60"/>
-      <c r="AH36" s="60"/>
-      <c r="AI36" s="60"/>
-      <c r="AJ36" s="60"/>
-      <c r="AK36" s="60"/>
-      <c r="AL36" s="60"/>
-      <c r="AM36" s="61"/>
+      <c r="AD36" s="63"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="63"/>
+      <c r="AG36" s="63"/>
+      <c r="AH36" s="63"/>
+      <c r="AI36" s="63"/>
+      <c r="AJ36" s="63"/>
+      <c r="AK36" s="63"/>
+      <c r="AL36" s="63"/>
+      <c r="AM36" s="64"/>
       <c r="AN36" s="48" t="s">
         <v>55</v>
       </c>
@@ -7671,7 +7671,7 @@
       <c r="AV36" s="49"/>
       <c r="AW36" s="50"/>
       <c r="AX36" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY36" s="49"/>
       <c r="AZ36" s="50"/>
@@ -7690,53 +7690,53 @@
         <v>28</v>
       </c>
       <c r="B37" s="55"/>
-      <c r="C37" s="56" t="s">
+      <c r="C37" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="56" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="58"/>
-      <c r="M37" s="59" t="s">
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="63"/>
+      <c r="Q37" s="63"/>
+      <c r="R37" s="63"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="N37" s="60"/>
-      <c r="O37" s="60"/>
-      <c r="P37" s="60"/>
-      <c r="Q37" s="60"/>
-      <c r="R37" s="60"/>
-      <c r="S37" s="61"/>
-      <c r="T37" s="62" t="s">
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="63"/>
+      <c r="Y37" s="63"/>
+      <c r="Z37" s="63"/>
+      <c r="AA37" s="63"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="U37" s="60"/>
-      <c r="V37" s="60"/>
-      <c r="W37" s="60"/>
-      <c r="X37" s="60"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="60"/>
-      <c r="AA37" s="60"/>
-      <c r="AB37" s="60"/>
-      <c r="AC37" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD37" s="60"/>
-      <c r="AE37" s="60"/>
-      <c r="AF37" s="60"/>
-      <c r="AG37" s="60"/>
-      <c r="AH37" s="60"/>
-      <c r="AI37" s="60"/>
-      <c r="AJ37" s="60"/>
-      <c r="AK37" s="60"/>
-      <c r="AL37" s="60"/>
-      <c r="AM37" s="61"/>
+      <c r="AD37" s="63"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="63"/>
+      <c r="AG37" s="63"/>
+      <c r="AH37" s="63"/>
+      <c r="AI37" s="63"/>
+      <c r="AJ37" s="63"/>
+      <c r="AK37" s="63"/>
+      <c r="AL37" s="63"/>
+      <c r="AM37" s="64"/>
       <c r="AN37" s="48" t="s">
         <v>55</v>
       </c>
@@ -7754,7 +7754,7 @@
       <c r="AV37" s="49"/>
       <c r="AW37" s="50"/>
       <c r="AX37" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY37" s="49"/>
       <c r="AZ37" s="50"/>
@@ -7773,53 +7773,53 @@
         <v>29</v>
       </c>
       <c r="B38" s="55"/>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="56" t="s">
+      <c r="D38" s="60"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-      <c r="K38" s="57"/>
-      <c r="L38" s="58"/>
-      <c r="M38" s="59" t="s">
+      <c r="I38" s="60"/>
+      <c r="J38" s="60"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="63"/>
+      <c r="Q38" s="63"/>
+      <c r="R38" s="63"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="N38" s="60"/>
-      <c r="O38" s="60"/>
-      <c r="P38" s="60"/>
-      <c r="Q38" s="60"/>
-      <c r="R38" s="60"/>
-      <c r="S38" s="61"/>
-      <c r="T38" s="62" t="s">
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="63"/>
+      <c r="Z38" s="63"/>
+      <c r="AA38" s="63"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="U38" s="60"/>
-      <c r="V38" s="60"/>
-      <c r="W38" s="60"/>
-      <c r="X38" s="60"/>
-      <c r="Y38" s="60"/>
-      <c r="Z38" s="60"/>
-      <c r="AA38" s="60"/>
-      <c r="AB38" s="60"/>
-      <c r="AC38" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD38" s="60"/>
-      <c r="AE38" s="60"/>
-      <c r="AF38" s="60"/>
-      <c r="AG38" s="60"/>
-      <c r="AH38" s="60"/>
-      <c r="AI38" s="60"/>
-      <c r="AJ38" s="60"/>
-      <c r="AK38" s="60"/>
-      <c r="AL38" s="60"/>
-      <c r="AM38" s="61"/>
+      <c r="AD38" s="63"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="63"/>
+      <c r="AG38" s="63"/>
+      <c r="AH38" s="63"/>
+      <c r="AI38" s="63"/>
+      <c r="AJ38" s="63"/>
+      <c r="AK38" s="63"/>
+      <c r="AL38" s="63"/>
+      <c r="AM38" s="64"/>
       <c r="AN38" s="48" t="s">
         <v>55</v>
       </c>
@@ -7837,7 +7837,7 @@
       <c r="AV38" s="49"/>
       <c r="AW38" s="50"/>
       <c r="AX38" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY38" s="49"/>
       <c r="AZ38" s="50"/>
@@ -7856,53 +7856,53 @@
         <v>30</v>
       </c>
       <c r="B39" s="55"/>
-      <c r="C39" s="56" t="s">
+      <c r="C39" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="56" t="s">
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I39" s="57"/>
-      <c r="J39" s="57"/>
-      <c r="K39" s="57"/>
-      <c r="L39" s="58"/>
-      <c r="M39" s="59" t="s">
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="63"/>
+      <c r="Q39" s="63"/>
+      <c r="R39" s="63"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="N39" s="60"/>
-      <c r="O39" s="60"/>
-      <c r="P39" s="60"/>
-      <c r="Q39" s="60"/>
-      <c r="R39" s="60"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="62" t="s">
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60"/>
-      <c r="X39" s="60"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="60"/>
-      <c r="AA39" s="60"/>
-      <c r="AB39" s="60"/>
-      <c r="AC39" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD39" s="60"/>
-      <c r="AE39" s="60"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="60"/>
-      <c r="AH39" s="60"/>
-      <c r="AI39" s="60"/>
-      <c r="AJ39" s="60"/>
-      <c r="AK39" s="60"/>
-      <c r="AL39" s="60"/>
-      <c r="AM39" s="61"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="63"/>
+      <c r="AG39" s="63"/>
+      <c r="AH39" s="63"/>
+      <c r="AI39" s="63"/>
+      <c r="AJ39" s="63"/>
+      <c r="AK39" s="63"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="64"/>
       <c r="AN39" s="48" t="s">
         <v>55</v>
       </c>
@@ -7920,7 +7920,7 @@
       <c r="AV39" s="49"/>
       <c r="AW39" s="50"/>
       <c r="AX39" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY39" s="49"/>
       <c r="AZ39" s="50"/>
@@ -7939,53 +7939,53 @@
         <v>31</v>
       </c>
       <c r="B40" s="55"/>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="56" t="s">
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-      <c r="K40" s="57"/>
-      <c r="L40" s="58"/>
-      <c r="M40" s="59" t="s">
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="63"/>
+      <c r="Q40" s="63"/>
+      <c r="R40" s="63"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="65" t="s">
         <v>98</v>
       </c>
-      <c r="N40" s="60"/>
-      <c r="O40" s="60"/>
-      <c r="P40" s="60"/>
-      <c r="Q40" s="60"/>
-      <c r="R40" s="60"/>
-      <c r="S40" s="61"/>
-      <c r="T40" s="62" t="s">
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="63"/>
+      <c r="Y40" s="63"/>
+      <c r="Z40" s="63"/>
+      <c r="AA40" s="63"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="66" t="s">
         <v>99</v>
       </c>
-      <c r="U40" s="60"/>
-      <c r="V40" s="60"/>
-      <c r="W40" s="60"/>
-      <c r="X40" s="60"/>
-      <c r="Y40" s="60"/>
-      <c r="Z40" s="60"/>
-      <c r="AA40" s="60"/>
-      <c r="AB40" s="60"/>
-      <c r="AC40" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD40" s="60"/>
-      <c r="AE40" s="60"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="60"/>
-      <c r="AH40" s="60"/>
-      <c r="AI40" s="60"/>
-      <c r="AJ40" s="60"/>
-      <c r="AK40" s="60"/>
-      <c r="AL40" s="60"/>
-      <c r="AM40" s="61"/>
+      <c r="AD40" s="63"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="63"/>
+      <c r="AG40" s="63"/>
+      <c r="AH40" s="63"/>
+      <c r="AI40" s="63"/>
+      <c r="AJ40" s="63"/>
+      <c r="AK40" s="63"/>
+      <c r="AL40" s="63"/>
+      <c r="AM40" s="64"/>
       <c r="AN40" s="48" t="s">
         <v>55</v>
       </c>
@@ -8003,7 +8003,7 @@
       <c r="AV40" s="49"/>
       <c r="AW40" s="50"/>
       <c r="AX40" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY40" s="49"/>
       <c r="AZ40" s="50"/>
@@ -8022,53 +8022,53 @@
         <v>32</v>
       </c>
       <c r="B41" s="55"/>
-      <c r="C41" s="56" t="s">
+      <c r="C41" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="56" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="I41" s="57"/>
-      <c r="J41" s="57"/>
-      <c r="K41" s="57"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="59" t="s">
+      <c r="I41" s="60"/>
+      <c r="J41" s="60"/>
+      <c r="K41" s="60"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="63"/>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="N41" s="60"/>
-      <c r="O41" s="60"/>
-      <c r="P41" s="60"/>
-      <c r="Q41" s="60"/>
-      <c r="R41" s="60"/>
-      <c r="S41" s="61"/>
-      <c r="T41" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="U41" s="60"/>
-      <c r="V41" s="60"/>
-      <c r="W41" s="60"/>
-      <c r="X41" s="60"/>
-      <c r="Y41" s="60"/>
-      <c r="Z41" s="60"/>
-      <c r="AA41" s="60"/>
-      <c r="AB41" s="60"/>
-      <c r="AC41" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD41" s="60"/>
-      <c r="AE41" s="60"/>
-      <c r="AF41" s="60"/>
-      <c r="AG41" s="60"/>
-      <c r="AH41" s="60"/>
-      <c r="AI41" s="60"/>
-      <c r="AJ41" s="60"/>
-      <c r="AK41" s="60"/>
-      <c r="AL41" s="60"/>
-      <c r="AM41" s="61"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="63"/>
+      <c r="Y41" s="63"/>
+      <c r="Z41" s="63"/>
+      <c r="AA41" s="63"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD41" s="63"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="63"/>
+      <c r="AG41" s="63"/>
+      <c r="AH41" s="63"/>
+      <c r="AI41" s="63"/>
+      <c r="AJ41" s="63"/>
+      <c r="AK41" s="63"/>
+      <c r="AL41" s="63"/>
+      <c r="AM41" s="64"/>
       <c r="AN41" s="48" t="s">
         <v>55</v>
       </c>
@@ -8086,7 +8086,7 @@
       <c r="AV41" s="49"/>
       <c r="AW41" s="50"/>
       <c r="AX41" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY41" s="49"/>
       <c r="AZ41" s="50"/>
@@ -8105,53 +8105,53 @@
         <v>33</v>
       </c>
       <c r="B42" s="55"/>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="56" t="s">
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="59" t="s">
+      <c r="I42" s="60"/>
+      <c r="J42" s="60"/>
+      <c r="K42" s="60"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="63"/>
+      <c r="Q42" s="63"/>
+      <c r="R42" s="63"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="N42" s="60"/>
-      <c r="O42" s="60"/>
-      <c r="P42" s="60"/>
-      <c r="Q42" s="60"/>
-      <c r="R42" s="60"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="U42" s="60"/>
-      <c r="V42" s="60"/>
-      <c r="W42" s="60"/>
-      <c r="X42" s="60"/>
-      <c r="Y42" s="60"/>
-      <c r="Z42" s="60"/>
-      <c r="AA42" s="60"/>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="60"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
-      <c r="AI42" s="60"/>
-      <c r="AJ42" s="60"/>
-      <c r="AK42" s="60"/>
-      <c r="AL42" s="60"/>
-      <c r="AM42" s="61"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="63"/>
+      <c r="Y42" s="63"/>
+      <c r="Z42" s="63"/>
+      <c r="AA42" s="63"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD42" s="63"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="63"/>
+      <c r="AG42" s="63"/>
+      <c r="AH42" s="63"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="63"/>
+      <c r="AM42" s="64"/>
       <c r="AN42" s="48" t="s">
         <v>55</v>
       </c>
@@ -8169,7 +8169,7 @@
       <c r="AV42" s="49"/>
       <c r="AW42" s="50"/>
       <c r="AX42" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY42" s="49"/>
       <c r="AZ42" s="50"/>
@@ -8188,53 +8188,53 @@
         <v>34</v>
       </c>
       <c r="B43" s="55"/>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="56" t="s">
+      <c r="D43" s="60"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="58"/>
-      <c r="M43" s="59" t="s">
+      <c r="I43" s="60"/>
+      <c r="J43" s="60"/>
+      <c r="K43" s="60"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="63"/>
+      <c r="R43" s="63"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="N43" s="60"/>
-      <c r="O43" s="60"/>
-      <c r="P43" s="60"/>
-      <c r="Q43" s="60"/>
-      <c r="R43" s="60"/>
-      <c r="S43" s="61"/>
-      <c r="T43" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="U43" s="60"/>
-      <c r="V43" s="60"/>
-      <c r="W43" s="60"/>
-      <c r="X43" s="60"/>
-      <c r="Y43" s="60"/>
-      <c r="Z43" s="60"/>
-      <c r="AA43" s="60"/>
-      <c r="AB43" s="60"/>
-      <c r="AC43" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD43" s="60"/>
-      <c r="AE43" s="60"/>
-      <c r="AF43" s="60"/>
-      <c r="AG43" s="60"/>
-      <c r="AH43" s="60"/>
-      <c r="AI43" s="60"/>
-      <c r="AJ43" s="60"/>
-      <c r="AK43" s="60"/>
-      <c r="AL43" s="60"/>
-      <c r="AM43" s="61"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="63"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="63"/>
+      <c r="AC43" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD43" s="63"/>
+      <c r="AE43" s="63"/>
+      <c r="AF43" s="63"/>
+      <c r="AG43" s="63"/>
+      <c r="AH43" s="63"/>
+      <c r="AI43" s="63"/>
+      <c r="AJ43" s="63"/>
+      <c r="AK43" s="63"/>
+      <c r="AL43" s="63"/>
+      <c r="AM43" s="64"/>
       <c r="AN43" s="48" t="s">
         <v>55</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="AV43" s="49"/>
       <c r="AW43" s="50"/>
       <c r="AX43" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY43" s="49"/>
       <c r="AZ43" s="50"/>
@@ -8271,53 +8271,53 @@
         <v>35</v>
       </c>
       <c r="B44" s="55"/>
-      <c r="C44" s="56" t="s">
+      <c r="C44" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="56" t="s">
+      <c r="D44" s="60"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="58"/>
-      <c r="M44" s="59" t="s">
+      <c r="I44" s="60"/>
+      <c r="J44" s="60"/>
+      <c r="K44" s="60"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="63"/>
+      <c r="R44" s="63"/>
+      <c r="S44" s="64"/>
+      <c r="T44" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="N44" s="60"/>
-      <c r="O44" s="60"/>
-      <c r="P44" s="60"/>
-      <c r="Q44" s="60"/>
-      <c r="R44" s="60"/>
-      <c r="S44" s="61"/>
-      <c r="T44" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="U44" s="60"/>
-      <c r="V44" s="60"/>
-      <c r="W44" s="60"/>
-      <c r="X44" s="60"/>
-      <c r="Y44" s="60"/>
-      <c r="Z44" s="60"/>
-      <c r="AA44" s="60"/>
-      <c r="AB44" s="60"/>
-      <c r="AC44" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD44" s="60"/>
-      <c r="AE44" s="60"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="60"/>
-      <c r="AI44" s="60"/>
-      <c r="AJ44" s="60"/>
-      <c r="AK44" s="60"/>
-      <c r="AL44" s="60"/>
-      <c r="AM44" s="61"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="63"/>
+      <c r="Y44" s="63"/>
+      <c r="Z44" s="63"/>
+      <c r="AA44" s="63"/>
+      <c r="AB44" s="63"/>
+      <c r="AC44" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD44" s="63"/>
+      <c r="AE44" s="63"/>
+      <c r="AF44" s="63"/>
+      <c r="AG44" s="63"/>
+      <c r="AH44" s="63"/>
+      <c r="AI44" s="63"/>
+      <c r="AJ44" s="63"/>
+      <c r="AK44" s="63"/>
+      <c r="AL44" s="63"/>
+      <c r="AM44" s="64"/>
       <c r="AN44" s="48" t="s">
         <v>55</v>
       </c>
@@ -8335,7 +8335,7 @@
       <c r="AV44" s="49"/>
       <c r="AW44" s="50"/>
       <c r="AX44" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY44" s="49"/>
       <c r="AZ44" s="50"/>
@@ -8354,53 +8354,53 @@
         <v>36</v>
       </c>
       <c r="B45" s="55"/>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="56" t="s">
+      <c r="D45" s="60"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="59" t="s">
+      <c r="I45" s="60"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="62" t="s">
+        <v>100</v>
+      </c>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+      <c r="P45" s="63"/>
+      <c r="Q45" s="63"/>
+      <c r="R45" s="63"/>
+      <c r="S45" s="64"/>
+      <c r="T45" s="65" t="s">
         <v>101</v>
       </c>
-      <c r="N45" s="60"/>
-      <c r="O45" s="60"/>
-      <c r="P45" s="60"/>
-      <c r="Q45" s="60"/>
-      <c r="R45" s="60"/>
-      <c r="S45" s="61"/>
-      <c r="T45" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="U45" s="60"/>
-      <c r="V45" s="60"/>
-      <c r="W45" s="60"/>
-      <c r="X45" s="60"/>
-      <c r="Y45" s="60"/>
-      <c r="Z45" s="60"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="60"/>
-      <c r="AC45" s="63" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD45" s="60"/>
-      <c r="AE45" s="60"/>
-      <c r="AF45" s="60"/>
-      <c r="AG45" s="60"/>
-      <c r="AH45" s="60"/>
-      <c r="AI45" s="60"/>
-      <c r="AJ45" s="60"/>
-      <c r="AK45" s="60"/>
-      <c r="AL45" s="60"/>
-      <c r="AM45" s="61"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="63"/>
+      <c r="Y45" s="63"/>
+      <c r="Z45" s="63"/>
+      <c r="AA45" s="63"/>
+      <c r="AB45" s="63"/>
+      <c r="AC45" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD45" s="63"/>
+      <c r="AE45" s="63"/>
+      <c r="AF45" s="63"/>
+      <c r="AG45" s="63"/>
+      <c r="AH45" s="63"/>
+      <c r="AI45" s="63"/>
+      <c r="AJ45" s="63"/>
+      <c r="AK45" s="63"/>
+      <c r="AL45" s="63"/>
+      <c r="AM45" s="64"/>
       <c r="AN45" s="48" t="s">
         <v>55</v>
       </c>
@@ -8418,7 +8418,7 @@
       <c r="AV45" s="49"/>
       <c r="AW45" s="50"/>
       <c r="AX45" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AY45" s="49"/>
       <c r="AZ45" s="50"/>
@@ -8434,6 +8434,414 @@
     </row>
   </sheetData>
   <mergeCells count="432">
+    <mergeCell ref="AX44:AZ44"/>
+    <mergeCell ref="BA44:BH44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:L45"/>
+    <mergeCell ref="M45:S45"/>
+    <mergeCell ref="T45:AB45"/>
+    <mergeCell ref="AC45:AM45"/>
+    <mergeCell ref="AN45:AQ45"/>
+    <mergeCell ref="AR45:AT45"/>
+    <mergeCell ref="AU45:AW45"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA45:BH45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="T44:AB44"/>
+    <mergeCell ref="AC44:AM44"/>
+    <mergeCell ref="AN44:AQ44"/>
+    <mergeCell ref="AR44:AT44"/>
+    <mergeCell ref="AU44:AW44"/>
+    <mergeCell ref="BA42:BH42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:L43"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="T43:AB43"/>
+    <mergeCell ref="AC43:AM43"/>
+    <mergeCell ref="AN43:AQ43"/>
+    <mergeCell ref="AR43:AT43"/>
+    <mergeCell ref="AU43:AW43"/>
+    <mergeCell ref="AX43:AZ43"/>
+    <mergeCell ref="BA43:BH43"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:L42"/>
+    <mergeCell ref="M42:S42"/>
+    <mergeCell ref="T42:AB42"/>
+    <mergeCell ref="AC42:AM42"/>
+    <mergeCell ref="AN42:AQ42"/>
+    <mergeCell ref="AR42:AT42"/>
+    <mergeCell ref="AU42:AW42"/>
+    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="AU37:AW37"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="BA39:BH39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:L40"/>
+    <mergeCell ref="AN40:AQ40"/>
+    <mergeCell ref="AR40:AT40"/>
+    <mergeCell ref="AU40:AW40"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="BA40:BH40"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:L39"/>
+    <mergeCell ref="AN39:AQ39"/>
+    <mergeCell ref="AR39:AT39"/>
+    <mergeCell ref="AU39:AW39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:AB40"/>
+    <mergeCell ref="AC40:AM40"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AB39"/>
+    <mergeCell ref="AC39:AM39"/>
+    <mergeCell ref="H36:L36"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="T36:AB36"/>
+    <mergeCell ref="AC36:AM36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:L38"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:L37"/>
+    <mergeCell ref="AU35:AW35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="BA35:BH35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:AB37"/>
+    <mergeCell ref="AC37:AM37"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:AB38"/>
+    <mergeCell ref="AC38:AM38"/>
+    <mergeCell ref="AN36:AQ36"/>
+    <mergeCell ref="AR36:AT36"/>
+    <mergeCell ref="AU36:AW36"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="BA36:BH36"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BH37"/>
+    <mergeCell ref="AN38:AQ38"/>
+    <mergeCell ref="AR38:AT38"/>
+    <mergeCell ref="AU38:AW38"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BA38:BH38"/>
+    <mergeCell ref="AN37:AQ37"/>
+    <mergeCell ref="AR37:AT37"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BA32:BH32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="M33:S33"/>
+    <mergeCell ref="T33:AB33"/>
+    <mergeCell ref="AC33:AM33"/>
+    <mergeCell ref="AN33:AQ33"/>
+    <mergeCell ref="AR33:AT33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BA33:BH33"/>
+    <mergeCell ref="AU17:AW17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="BA17:BH17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:L34"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="T34:AB34"/>
+    <mergeCell ref="AC34:AM34"/>
+    <mergeCell ref="AN34:AQ34"/>
+    <mergeCell ref="AR34:AT34"/>
+    <mergeCell ref="AU34:AW34"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="BA34:BH34"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+    <mergeCell ref="M32:S32"/>
+    <mergeCell ref="T32:AB32"/>
+    <mergeCell ref="AC32:AM32"/>
+    <mergeCell ref="AN32:AQ32"/>
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="BA30:BH30"/>
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="BA20:BH20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:AB16"/>
+    <mergeCell ref="AC16:AM16"/>
+    <mergeCell ref="AN16:AQ16"/>
+    <mergeCell ref="AR16:AT16"/>
+    <mergeCell ref="AU16:AW16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:AB17"/>
+    <mergeCell ref="AC17:AM17"/>
+    <mergeCell ref="AN17:AQ17"/>
+    <mergeCell ref="AR17:AT17"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="T30:AB30"/>
+    <mergeCell ref="AC30:AM30"/>
+    <mergeCell ref="AN30:AQ30"/>
+    <mergeCell ref="AR30:AT30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="BA24:BH24"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:L23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="T23:AB23"/>
+    <mergeCell ref="AC23:AM23"/>
+    <mergeCell ref="AN23:AQ23"/>
+    <mergeCell ref="AR23:AT23"/>
+    <mergeCell ref="AU23:AW23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:AB18"/>
+    <mergeCell ref="AC18:AM18"/>
+    <mergeCell ref="AN18:AQ18"/>
+    <mergeCell ref="AR18:AT18"/>
+    <mergeCell ref="AN22:AQ22"/>
+    <mergeCell ref="AR22:AT22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:L24"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:AB24"/>
+    <mergeCell ref="AC24:AM24"/>
+    <mergeCell ref="AN24:AQ24"/>
+    <mergeCell ref="AR24:AT24"/>
+    <mergeCell ref="AU18:AW18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="BA18:BH18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="H19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:AB19"/>
+    <mergeCell ref="AC19:AM19"/>
+    <mergeCell ref="AN19:AQ19"/>
+    <mergeCell ref="AR19:AT19"/>
+    <mergeCell ref="AU19:AW19"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="BA19:BH19"/>
+    <mergeCell ref="AU20:AW20"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="BA22:BH22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:L22"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="T22:AB22"/>
+    <mergeCell ref="AC22:AM22"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="BA15:BH15"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:AB15"/>
+    <mergeCell ref="AC15:AM15"/>
+    <mergeCell ref="AN15:AQ15"/>
+    <mergeCell ref="AR15:AT15"/>
+    <mergeCell ref="AU15:AW15"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:AB20"/>
+    <mergeCell ref="AC20:AM20"/>
+    <mergeCell ref="AN20:AQ20"/>
+    <mergeCell ref="AR20:AT20"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:AB14"/>
+    <mergeCell ref="AC14:AM14"/>
+    <mergeCell ref="AN14:AQ14"/>
+    <mergeCell ref="AR14:AT14"/>
+    <mergeCell ref="AU14:AW14"/>
+    <mergeCell ref="AN13:AQ13"/>
+    <mergeCell ref="AR13:AT13"/>
+    <mergeCell ref="AU13:AW13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:AB13"/>
+    <mergeCell ref="AW1:AZ1"/>
+    <mergeCell ref="BA1:BH1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="H2:AI2"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AR2"/>
+    <mergeCell ref="AS2:AV2"/>
+    <mergeCell ref="AW2:AZ2"/>
+    <mergeCell ref="BA2:BH2"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="H1:AI1"/>
+    <mergeCell ref="AJ1:AM1"/>
+    <mergeCell ref="AN1:AR1"/>
+    <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="AJ3:AM3"/>
+    <mergeCell ref="AN3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BH3"/>
+    <mergeCell ref="AJ4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:AZ4"/>
+    <mergeCell ref="BA4:BH4"/>
+    <mergeCell ref="C6:S6"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="H7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="AR6:AT7"/>
+    <mergeCell ref="AU6:AW7"/>
+    <mergeCell ref="AX6:AZ7"/>
+    <mergeCell ref="AN6:AQ7"/>
+    <mergeCell ref="BA6:BH7"/>
+    <mergeCell ref="BA10:BH11"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="C8:G9"/>
+    <mergeCell ref="H8:L9"/>
+    <mergeCell ref="M8:S9"/>
+    <mergeCell ref="AN12:AQ12"/>
+    <mergeCell ref="AR12:AT12"/>
+    <mergeCell ref="AU12:AW12"/>
+    <mergeCell ref="BA8:BH9"/>
+    <mergeCell ref="A3:G4"/>
+    <mergeCell ref="H3:AI4"/>
+    <mergeCell ref="A6:B7"/>
+    <mergeCell ref="T6:AB7"/>
+    <mergeCell ref="AC6:AM7"/>
+    <mergeCell ref="A10:B11"/>
+    <mergeCell ref="C10:G11"/>
+    <mergeCell ref="H10:L11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="AR8:AT9"/>
+    <mergeCell ref="AU8:AW9"/>
+    <mergeCell ref="AX8:AZ9"/>
+    <mergeCell ref="AN8:AQ9"/>
+    <mergeCell ref="T10:AB11"/>
+    <mergeCell ref="T8:AB9"/>
+    <mergeCell ref="AC8:AM9"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="AC10:AM11"/>
+    <mergeCell ref="AR10:AT11"/>
+    <mergeCell ref="AU10:AW11"/>
+    <mergeCell ref="AX10:AZ11"/>
+    <mergeCell ref="AN10:AQ11"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="M21:S21"/>
+    <mergeCell ref="T21:AB21"/>
+    <mergeCell ref="AC21:AM21"/>
+    <mergeCell ref="AN21:AQ21"/>
+    <mergeCell ref="AR21:AT21"/>
+    <mergeCell ref="AU21:AW21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="T12:AB12"/>
+    <mergeCell ref="AC12:AM12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="AC13:AM13"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="BA25:BH25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:L26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:AB26"/>
+    <mergeCell ref="AC26:AM26"/>
+    <mergeCell ref="AN26:AQ26"/>
+    <mergeCell ref="AR26:AT26"/>
+    <mergeCell ref="AU26:AW26"/>
+    <mergeCell ref="BA26:BH26"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:L25"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:AB25"/>
+    <mergeCell ref="AC25:AM25"/>
+    <mergeCell ref="AN25:AQ25"/>
+    <mergeCell ref="AR25:AT25"/>
+    <mergeCell ref="AU25:AW25"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="BA23:BH23"/>
+    <mergeCell ref="AU24:AW24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="BA27:BH27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="T28:AB28"/>
+    <mergeCell ref="AC28:AM28"/>
+    <mergeCell ref="AN28:AQ28"/>
+    <mergeCell ref="AR28:AT28"/>
+    <mergeCell ref="AU28:AW28"/>
+    <mergeCell ref="BA28:BH28"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:L27"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="T27:AB27"/>
+    <mergeCell ref="AC27:AM27"/>
+    <mergeCell ref="AN27:AQ27"/>
+    <mergeCell ref="AR27:AT27"/>
+    <mergeCell ref="AU27:AW27"/>
+    <mergeCell ref="AN29:AQ29"/>
+    <mergeCell ref="AR29:AT29"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BH29"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:L31"/>
+    <mergeCell ref="M31:S31"/>
+    <mergeCell ref="T31:AB31"/>
+    <mergeCell ref="AC31:AM31"/>
+    <mergeCell ref="AN31:AQ31"/>
+    <mergeCell ref="AR31:AT31"/>
+    <mergeCell ref="H35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:AB35"/>
+    <mergeCell ref="AC35:AM35"/>
+    <mergeCell ref="AN35:AQ35"/>
+    <mergeCell ref="AR35:AT35"/>
     <mergeCell ref="AX41:AZ41"/>
     <mergeCell ref="BA41:BH41"/>
     <mergeCell ref="A42:B42"/>
@@ -8458,414 +8866,6 @@
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C35:G35"/>
     <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="H31:L31"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="T31:AB31"/>
-    <mergeCell ref="AC31:AM31"/>
-    <mergeCell ref="AN31:AQ31"/>
-    <mergeCell ref="AR31:AT31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="BA27:BH27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="T28:AB28"/>
-    <mergeCell ref="AC28:AM28"/>
-    <mergeCell ref="AN28:AQ28"/>
-    <mergeCell ref="AR28:AT28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="BA28:BH28"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="H27:L27"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="T27:AB27"/>
-    <mergeCell ref="AC27:AM27"/>
-    <mergeCell ref="AN27:AQ27"/>
-    <mergeCell ref="AR27:AT27"/>
-    <mergeCell ref="AU27:AW27"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="BA25:BH25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:L26"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:AB26"/>
-    <mergeCell ref="AC26:AM26"/>
-    <mergeCell ref="AN26:AQ26"/>
-    <mergeCell ref="AR26:AT26"/>
-    <mergeCell ref="AU26:AW26"/>
-    <mergeCell ref="BA26:BH26"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:L25"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:AB25"/>
-    <mergeCell ref="AC25:AM25"/>
-    <mergeCell ref="AN25:AQ25"/>
-    <mergeCell ref="AR25:AT25"/>
-    <mergeCell ref="AU25:AW25"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="AC10:AM11"/>
-    <mergeCell ref="AR10:AT11"/>
-    <mergeCell ref="AU10:AW11"/>
-    <mergeCell ref="AX10:AZ11"/>
-    <mergeCell ref="AN10:AQ11"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="M21:S21"/>
-    <mergeCell ref="T21:AB21"/>
-    <mergeCell ref="AC21:AM21"/>
-    <mergeCell ref="AN21:AQ21"/>
-    <mergeCell ref="AR21:AT21"/>
-    <mergeCell ref="AU21:AW21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="T12:AB12"/>
-    <mergeCell ref="AC12:AM12"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="C8:G9"/>
-    <mergeCell ref="H8:L9"/>
-    <mergeCell ref="M8:S9"/>
-    <mergeCell ref="AN12:AQ12"/>
-    <mergeCell ref="AR12:AT12"/>
-    <mergeCell ref="AU12:AW12"/>
-    <mergeCell ref="BA8:BH9"/>
-    <mergeCell ref="A3:G4"/>
-    <mergeCell ref="H3:AI4"/>
-    <mergeCell ref="A6:B7"/>
-    <mergeCell ref="T6:AB7"/>
-    <mergeCell ref="AC6:AM7"/>
-    <mergeCell ref="A10:B11"/>
-    <mergeCell ref="C10:G11"/>
-    <mergeCell ref="H10:L11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="AR8:AT9"/>
-    <mergeCell ref="AU8:AW9"/>
-    <mergeCell ref="AX8:AZ9"/>
-    <mergeCell ref="AN8:AQ9"/>
-    <mergeCell ref="T10:AB11"/>
-    <mergeCell ref="T8:AB9"/>
-    <mergeCell ref="AC8:AM9"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="H7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="AR6:AT7"/>
-    <mergeCell ref="AU6:AW7"/>
-    <mergeCell ref="AX6:AZ7"/>
-    <mergeCell ref="AN6:AQ7"/>
-    <mergeCell ref="BA6:BH7"/>
-    <mergeCell ref="BA10:BH11"/>
-    <mergeCell ref="AJ3:AM3"/>
-    <mergeCell ref="AN3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA3:BH3"/>
-    <mergeCell ref="AJ4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:AZ4"/>
-    <mergeCell ref="BA4:BH4"/>
-    <mergeCell ref="C6:S6"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BH1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="H2:AI2"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AR2"/>
-    <mergeCell ref="AS2:AV2"/>
-    <mergeCell ref="AW2:AZ2"/>
-    <mergeCell ref="BA2:BH2"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="H1:AI1"/>
-    <mergeCell ref="AJ1:AM1"/>
-    <mergeCell ref="AN1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="AC13:AM13"/>
-    <mergeCell ref="AN13:AQ13"/>
-    <mergeCell ref="AR13:AT13"/>
-    <mergeCell ref="AU13:AW13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:AB13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="H14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:AB14"/>
-    <mergeCell ref="AC14:AM14"/>
-    <mergeCell ref="AN14:AQ14"/>
-    <mergeCell ref="AR14:AT14"/>
-    <mergeCell ref="AU14:AW14"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="BA15:BH15"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:AB15"/>
-    <mergeCell ref="AC15:AM15"/>
-    <mergeCell ref="AN15:AQ15"/>
-    <mergeCell ref="AR15:AT15"/>
-    <mergeCell ref="AU15:AW15"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:AB20"/>
-    <mergeCell ref="AC20:AM20"/>
-    <mergeCell ref="AN20:AQ20"/>
-    <mergeCell ref="AR20:AT20"/>
-    <mergeCell ref="AU18:AW18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="BA18:BH18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="H19:L19"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:AB19"/>
-    <mergeCell ref="AC19:AM19"/>
-    <mergeCell ref="AN19:AQ19"/>
-    <mergeCell ref="AR19:AT19"/>
-    <mergeCell ref="AU19:AW19"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="BA19:BH19"/>
-    <mergeCell ref="AU20:AW20"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="BA22:BH22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:L22"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="T22:AB22"/>
-    <mergeCell ref="AC22:AM22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:AB18"/>
-    <mergeCell ref="AC18:AM18"/>
-    <mergeCell ref="AN18:AQ18"/>
-    <mergeCell ref="AR18:AT18"/>
-    <mergeCell ref="AN22:AQ22"/>
-    <mergeCell ref="AR22:AT22"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="BA23:BH23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:L24"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:AB24"/>
-    <mergeCell ref="AC24:AM24"/>
-    <mergeCell ref="AN24:AQ24"/>
-    <mergeCell ref="AR24:AT24"/>
-    <mergeCell ref="AU24:AW24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BA24:BH24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:L23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="T23:AB23"/>
-    <mergeCell ref="AC23:AM23"/>
-    <mergeCell ref="AN23:AQ23"/>
-    <mergeCell ref="AR23:AT23"/>
-    <mergeCell ref="AU23:AW23"/>
-    <mergeCell ref="AN29:AQ29"/>
-    <mergeCell ref="AR29:AT29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BH29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:AB30"/>
-    <mergeCell ref="AC30:AM30"/>
-    <mergeCell ref="AN30:AQ30"/>
-    <mergeCell ref="AR30:AT30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="BA30:BH30"/>
-    <mergeCell ref="H29:L29"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="BA20:BH20"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="T16:AB16"/>
-    <mergeCell ref="AC16:AM16"/>
-    <mergeCell ref="AN16:AQ16"/>
-    <mergeCell ref="AR16:AT16"/>
-    <mergeCell ref="AU16:AW16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:AB17"/>
-    <mergeCell ref="AC17:AM17"/>
-    <mergeCell ref="AN17:AQ17"/>
-    <mergeCell ref="AR17:AT17"/>
-    <mergeCell ref="AU17:AW17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="BA17:BH17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="H34:L34"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="T34:AB34"/>
-    <mergeCell ref="AC34:AM34"/>
-    <mergeCell ref="AN34:AQ34"/>
-    <mergeCell ref="AR34:AT34"/>
-    <mergeCell ref="AU34:AW34"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="BA34:BH34"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
-    <mergeCell ref="M32:S32"/>
-    <mergeCell ref="T32:AB32"/>
-    <mergeCell ref="AC32:AM32"/>
-    <mergeCell ref="AN32:AQ32"/>
-    <mergeCell ref="AR32:AT32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BA32:BH32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="M33:S33"/>
-    <mergeCell ref="T33:AB33"/>
-    <mergeCell ref="AC33:AM33"/>
-    <mergeCell ref="AN33:AQ33"/>
-    <mergeCell ref="AR33:AT33"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BA33:BH33"/>
-    <mergeCell ref="H35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:AB35"/>
-    <mergeCell ref="AC35:AM35"/>
-    <mergeCell ref="AN35:AQ35"/>
-    <mergeCell ref="AR35:AT35"/>
-    <mergeCell ref="AU35:AW35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="BA35:BH35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:AB37"/>
-    <mergeCell ref="AC37:AM37"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:AB38"/>
-    <mergeCell ref="AC38:AM38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AB40"/>
-    <mergeCell ref="AC40:AM40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AB39"/>
-    <mergeCell ref="AC39:AM39"/>
-    <mergeCell ref="H36:L36"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="T36:AB36"/>
-    <mergeCell ref="AC36:AM36"/>
-    <mergeCell ref="AN36:AQ36"/>
-    <mergeCell ref="AR36:AT36"/>
-    <mergeCell ref="AU36:AW36"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="BA36:BH36"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BH37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:L38"/>
-    <mergeCell ref="AN38:AQ38"/>
-    <mergeCell ref="AR38:AT38"/>
-    <mergeCell ref="AU38:AW38"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BA38:BH38"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:L37"/>
-    <mergeCell ref="AN37:AQ37"/>
-    <mergeCell ref="AR37:AT37"/>
-    <mergeCell ref="AU37:AW37"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="BA39:BH39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:L40"/>
-    <mergeCell ref="AN40:AQ40"/>
-    <mergeCell ref="AR40:AT40"/>
-    <mergeCell ref="AU40:AW40"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="BA40:BH40"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:L39"/>
-    <mergeCell ref="AN39:AQ39"/>
-    <mergeCell ref="AR39:AT39"/>
-    <mergeCell ref="AU39:AW39"/>
-    <mergeCell ref="BA42:BH42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="H43:L43"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="T43:AB43"/>
-    <mergeCell ref="AC43:AM43"/>
-    <mergeCell ref="AN43:AQ43"/>
-    <mergeCell ref="AR43:AT43"/>
-    <mergeCell ref="AU43:AW43"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="BA43:BH43"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:L42"/>
-    <mergeCell ref="M42:S42"/>
-    <mergeCell ref="T42:AB42"/>
-    <mergeCell ref="AC42:AM42"/>
-    <mergeCell ref="AN42:AQ42"/>
-    <mergeCell ref="AR42:AT42"/>
-    <mergeCell ref="AU42:AW42"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="AX44:AZ44"/>
-    <mergeCell ref="BA44:BH44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="H45:L45"/>
-    <mergeCell ref="M45:S45"/>
-    <mergeCell ref="T45:AB45"/>
-    <mergeCell ref="AC45:AM45"/>
-    <mergeCell ref="AN45:AQ45"/>
-    <mergeCell ref="AR45:AT45"/>
-    <mergeCell ref="AU45:AW45"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA45:BH45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="T44:AB44"/>
-    <mergeCell ref="AC44:AM44"/>
-    <mergeCell ref="AN44:AQ44"/>
-    <mergeCell ref="AR44:AT44"/>
-    <mergeCell ref="AU44:AW44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AR8 AR10 AR12:AR45">
